--- a/service-system/src/main/resources/static/路面弯沉17规范落锤法.xlsx
+++ b/service-system/src/main/resources/static/路面弯沉17规范落锤法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821A380-3B06-460B-8EF0-89376DD4A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E92D6FA-0DB1-4386-84AE-434F8CBE5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="温度修正" sheetId="7" state="hidden" r:id="rId1"/>
@@ -286,14 +286,14 @@
     <numFmt numFmtId="177" formatCode="&quot;?#,##0;\(&quot;&quot;?&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="182" formatCode="\$#,##0;\(\$#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="186" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="187" formatCode="0.00_ "/>
-    <numFmt numFmtId="188" formatCode="0_ "/>
-    <numFmt numFmtId="189" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="180" formatCode="\$#,##0;\(\$#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="0_ "/>
+    <numFmt numFmtId="187" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1660,7 +1660,7 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,43 +2201,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="246" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="246" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="6" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="2" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="2" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="3" fillId="2" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2247,11 +2247,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="246" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2262,27 +2262,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2290,10 +2290,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2306,7 +2306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="351" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="351" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="351" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="351" applyAlignment="1">
@@ -2318,7 +2318,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="372" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2330,16 +2330,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="372" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2354,16 +2354,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="219"/>
@@ -2378,21 +2378,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="219" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="1" xfId="219" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="1" xfId="219" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="219" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="1" xfId="219" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="219" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="219" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="219" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="219" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="219" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="219" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="219" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="219" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2400,9 +2403,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="219" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="219" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2430,7 +2430,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="351" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="10" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="351" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2439,44 +2439,44 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="356" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="5" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="8" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="7" xfId="246" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3288,808 +3288,808 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="52"/>
-    <col min="2" max="2" width="21.46484375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="52" customWidth="1"/>
     <col min="3" max="3" width="9" style="52"/>
-    <col min="4" max="4" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="53" customWidth="1"/>
     <col min="8" max="249" width="9" style="52"/>
-    <col min="250" max="250" width="17.3984375" style="52" customWidth="1"/>
-    <col min="251" max="251" width="12.46484375" style="52" customWidth="1"/>
-    <col min="252" max="252" width="11.265625" style="52" customWidth="1"/>
-    <col min="253" max="253" width="11.1328125" style="52" customWidth="1"/>
+    <col min="250" max="250" width="17.375" style="52" customWidth="1"/>
+    <col min="251" max="251" width="12.5" style="52" customWidth="1"/>
+    <col min="252" max="252" width="11.25" style="52" customWidth="1"/>
+    <col min="253" max="253" width="11.125" style="52" customWidth="1"/>
     <col min="254" max="254" width="9" style="52"/>
-    <col min="255" max="255" width="4.265625" style="52" customWidth="1"/>
+    <col min="255" max="255" width="4.25" style="52" customWidth="1"/>
     <col min="256" max="257" width="9" style="52"/>
-    <col min="258" max="258" width="17.3984375" style="52" customWidth="1"/>
-    <col min="259" max="259" width="12.46484375" style="52" customWidth="1"/>
-    <col min="260" max="260" width="11.265625" style="52" customWidth="1"/>
-    <col min="261" max="261" width="11.1328125" style="52" customWidth="1"/>
+    <col min="258" max="258" width="17.375" style="52" customWidth="1"/>
+    <col min="259" max="259" width="12.5" style="52" customWidth="1"/>
+    <col min="260" max="260" width="11.25" style="52" customWidth="1"/>
+    <col min="261" max="261" width="11.125" style="52" customWidth="1"/>
     <col min="262" max="505" width="9" style="52"/>
-    <col min="506" max="506" width="17.3984375" style="52" customWidth="1"/>
-    <col min="507" max="507" width="12.46484375" style="52" customWidth="1"/>
-    <col min="508" max="508" width="11.265625" style="52" customWidth="1"/>
-    <col min="509" max="509" width="11.1328125" style="52" customWidth="1"/>
+    <col min="506" max="506" width="17.375" style="52" customWidth="1"/>
+    <col min="507" max="507" width="12.5" style="52" customWidth="1"/>
+    <col min="508" max="508" width="11.25" style="52" customWidth="1"/>
+    <col min="509" max="509" width="11.125" style="52" customWidth="1"/>
     <col min="510" max="510" width="9" style="52"/>
-    <col min="511" max="511" width="4.265625" style="52" customWidth="1"/>
+    <col min="511" max="511" width="4.25" style="52" customWidth="1"/>
     <col min="512" max="513" width="9" style="52"/>
-    <col min="514" max="514" width="17.3984375" style="52" customWidth="1"/>
-    <col min="515" max="515" width="12.46484375" style="52" customWidth="1"/>
-    <col min="516" max="516" width="11.265625" style="52" customWidth="1"/>
-    <col min="517" max="517" width="11.1328125" style="52" customWidth="1"/>
+    <col min="514" max="514" width="17.375" style="52" customWidth="1"/>
+    <col min="515" max="515" width="12.5" style="52" customWidth="1"/>
+    <col min="516" max="516" width="11.25" style="52" customWidth="1"/>
+    <col min="517" max="517" width="11.125" style="52" customWidth="1"/>
     <col min="518" max="761" width="9" style="52"/>
-    <col min="762" max="762" width="17.3984375" style="52" customWidth="1"/>
-    <col min="763" max="763" width="12.46484375" style="52" customWidth="1"/>
-    <col min="764" max="764" width="11.265625" style="52" customWidth="1"/>
-    <col min="765" max="765" width="11.1328125" style="52" customWidth="1"/>
+    <col min="762" max="762" width="17.375" style="52" customWidth="1"/>
+    <col min="763" max="763" width="12.5" style="52" customWidth="1"/>
+    <col min="764" max="764" width="11.25" style="52" customWidth="1"/>
+    <col min="765" max="765" width="11.125" style="52" customWidth="1"/>
     <col min="766" max="766" width="9" style="52"/>
-    <col min="767" max="767" width="4.265625" style="52" customWidth="1"/>
+    <col min="767" max="767" width="4.25" style="52" customWidth="1"/>
     <col min="768" max="769" width="9" style="52"/>
-    <col min="770" max="770" width="17.3984375" style="52" customWidth="1"/>
-    <col min="771" max="771" width="12.46484375" style="52" customWidth="1"/>
-    <col min="772" max="772" width="11.265625" style="52" customWidth="1"/>
-    <col min="773" max="773" width="11.1328125" style="52" customWidth="1"/>
+    <col min="770" max="770" width="17.375" style="52" customWidth="1"/>
+    <col min="771" max="771" width="12.5" style="52" customWidth="1"/>
+    <col min="772" max="772" width="11.25" style="52" customWidth="1"/>
+    <col min="773" max="773" width="11.125" style="52" customWidth="1"/>
     <col min="774" max="1017" width="9" style="52"/>
-    <col min="1018" max="1018" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1019" max="1019" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1020" max="1020" width="11.265625" style="52" customWidth="1"/>
-    <col min="1021" max="1021" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1018" max="1018" width="17.375" style="52" customWidth="1"/>
+    <col min="1019" max="1019" width="12.5" style="52" customWidth="1"/>
+    <col min="1020" max="1020" width="11.25" style="52" customWidth="1"/>
+    <col min="1021" max="1021" width="11.125" style="52" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="52"/>
-    <col min="1023" max="1023" width="4.265625" style="52" customWidth="1"/>
+    <col min="1023" max="1023" width="4.25" style="52" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="52"/>
-    <col min="1026" max="1026" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1027" max="1027" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1028" max="1028" width="11.265625" style="52" customWidth="1"/>
-    <col min="1029" max="1029" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1026" max="1026" width="17.375" style="52" customWidth="1"/>
+    <col min="1027" max="1027" width="12.5" style="52" customWidth="1"/>
+    <col min="1028" max="1028" width="11.25" style="52" customWidth="1"/>
+    <col min="1029" max="1029" width="11.125" style="52" customWidth="1"/>
     <col min="1030" max="1273" width="9" style="52"/>
-    <col min="1274" max="1274" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1275" max="1275" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1276" max="1276" width="11.265625" style="52" customWidth="1"/>
-    <col min="1277" max="1277" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1274" max="1274" width="17.375" style="52" customWidth="1"/>
+    <col min="1275" max="1275" width="12.5" style="52" customWidth="1"/>
+    <col min="1276" max="1276" width="11.25" style="52" customWidth="1"/>
+    <col min="1277" max="1277" width="11.125" style="52" customWidth="1"/>
     <col min="1278" max="1278" width="9" style="52"/>
-    <col min="1279" max="1279" width="4.265625" style="52" customWidth="1"/>
+    <col min="1279" max="1279" width="4.25" style="52" customWidth="1"/>
     <col min="1280" max="1281" width="9" style="52"/>
-    <col min="1282" max="1282" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1283" max="1283" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1284" max="1284" width="11.265625" style="52" customWidth="1"/>
-    <col min="1285" max="1285" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1282" max="1282" width="17.375" style="52" customWidth="1"/>
+    <col min="1283" max="1283" width="12.5" style="52" customWidth="1"/>
+    <col min="1284" max="1284" width="11.25" style="52" customWidth="1"/>
+    <col min="1285" max="1285" width="11.125" style="52" customWidth="1"/>
     <col min="1286" max="1529" width="9" style="52"/>
-    <col min="1530" max="1530" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1531" max="1531" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1532" max="1532" width="11.265625" style="52" customWidth="1"/>
-    <col min="1533" max="1533" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1530" max="1530" width="17.375" style="52" customWidth="1"/>
+    <col min="1531" max="1531" width="12.5" style="52" customWidth="1"/>
+    <col min="1532" max="1532" width="11.25" style="52" customWidth="1"/>
+    <col min="1533" max="1533" width="11.125" style="52" customWidth="1"/>
     <col min="1534" max="1534" width="9" style="52"/>
-    <col min="1535" max="1535" width="4.265625" style="52" customWidth="1"/>
+    <col min="1535" max="1535" width="4.25" style="52" customWidth="1"/>
     <col min="1536" max="1537" width="9" style="52"/>
-    <col min="1538" max="1538" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1539" max="1539" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1540" max="1540" width="11.265625" style="52" customWidth="1"/>
-    <col min="1541" max="1541" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1538" max="1538" width="17.375" style="52" customWidth="1"/>
+    <col min="1539" max="1539" width="12.5" style="52" customWidth="1"/>
+    <col min="1540" max="1540" width="11.25" style="52" customWidth="1"/>
+    <col min="1541" max="1541" width="11.125" style="52" customWidth="1"/>
     <col min="1542" max="1785" width="9" style="52"/>
-    <col min="1786" max="1786" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1787" max="1787" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1788" max="1788" width="11.265625" style="52" customWidth="1"/>
-    <col min="1789" max="1789" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1786" max="1786" width="17.375" style="52" customWidth="1"/>
+    <col min="1787" max="1787" width="12.5" style="52" customWidth="1"/>
+    <col min="1788" max="1788" width="11.25" style="52" customWidth="1"/>
+    <col min="1789" max="1789" width="11.125" style="52" customWidth="1"/>
     <col min="1790" max="1790" width="9" style="52"/>
-    <col min="1791" max="1791" width="4.265625" style="52" customWidth="1"/>
+    <col min="1791" max="1791" width="4.25" style="52" customWidth="1"/>
     <col min="1792" max="1793" width="9" style="52"/>
-    <col min="1794" max="1794" width="17.3984375" style="52" customWidth="1"/>
-    <col min="1795" max="1795" width="12.46484375" style="52" customWidth="1"/>
-    <col min="1796" max="1796" width="11.265625" style="52" customWidth="1"/>
-    <col min="1797" max="1797" width="11.1328125" style="52" customWidth="1"/>
+    <col min="1794" max="1794" width="17.375" style="52" customWidth="1"/>
+    <col min="1795" max="1795" width="12.5" style="52" customWidth="1"/>
+    <col min="1796" max="1796" width="11.25" style="52" customWidth="1"/>
+    <col min="1797" max="1797" width="11.125" style="52" customWidth="1"/>
     <col min="1798" max="2041" width="9" style="52"/>
-    <col min="2042" max="2042" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2043" max="2043" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2044" max="2044" width="11.265625" style="52" customWidth="1"/>
-    <col min="2045" max="2045" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2042" max="2042" width="17.375" style="52" customWidth="1"/>
+    <col min="2043" max="2043" width="12.5" style="52" customWidth="1"/>
+    <col min="2044" max="2044" width="11.25" style="52" customWidth="1"/>
+    <col min="2045" max="2045" width="11.125" style="52" customWidth="1"/>
     <col min="2046" max="2046" width="9" style="52"/>
-    <col min="2047" max="2047" width="4.265625" style="52" customWidth="1"/>
+    <col min="2047" max="2047" width="4.25" style="52" customWidth="1"/>
     <col min="2048" max="2049" width="9" style="52"/>
-    <col min="2050" max="2050" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2051" max="2051" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2052" max="2052" width="11.265625" style="52" customWidth="1"/>
-    <col min="2053" max="2053" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2050" max="2050" width="17.375" style="52" customWidth="1"/>
+    <col min="2051" max="2051" width="12.5" style="52" customWidth="1"/>
+    <col min="2052" max="2052" width="11.25" style="52" customWidth="1"/>
+    <col min="2053" max="2053" width="11.125" style="52" customWidth="1"/>
     <col min="2054" max="2297" width="9" style="52"/>
-    <col min="2298" max="2298" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2299" max="2299" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2300" max="2300" width="11.265625" style="52" customWidth="1"/>
-    <col min="2301" max="2301" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2298" max="2298" width="17.375" style="52" customWidth="1"/>
+    <col min="2299" max="2299" width="12.5" style="52" customWidth="1"/>
+    <col min="2300" max="2300" width="11.25" style="52" customWidth="1"/>
+    <col min="2301" max="2301" width="11.125" style="52" customWidth="1"/>
     <col min="2302" max="2302" width="9" style="52"/>
-    <col min="2303" max="2303" width="4.265625" style="52" customWidth="1"/>
+    <col min="2303" max="2303" width="4.25" style="52" customWidth="1"/>
     <col min="2304" max="2305" width="9" style="52"/>
-    <col min="2306" max="2306" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2307" max="2307" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2308" max="2308" width="11.265625" style="52" customWidth="1"/>
-    <col min="2309" max="2309" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2306" max="2306" width="17.375" style="52" customWidth="1"/>
+    <col min="2307" max="2307" width="12.5" style="52" customWidth="1"/>
+    <col min="2308" max="2308" width="11.25" style="52" customWidth="1"/>
+    <col min="2309" max="2309" width="11.125" style="52" customWidth="1"/>
     <col min="2310" max="2553" width="9" style="52"/>
-    <col min="2554" max="2554" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2555" max="2555" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2556" max="2556" width="11.265625" style="52" customWidth="1"/>
-    <col min="2557" max="2557" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2554" max="2554" width="17.375" style="52" customWidth="1"/>
+    <col min="2555" max="2555" width="12.5" style="52" customWidth="1"/>
+    <col min="2556" max="2556" width="11.25" style="52" customWidth="1"/>
+    <col min="2557" max="2557" width="11.125" style="52" customWidth="1"/>
     <col min="2558" max="2558" width="9" style="52"/>
-    <col min="2559" max="2559" width="4.265625" style="52" customWidth="1"/>
+    <col min="2559" max="2559" width="4.25" style="52" customWidth="1"/>
     <col min="2560" max="2561" width="9" style="52"/>
-    <col min="2562" max="2562" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2563" max="2563" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2564" max="2564" width="11.265625" style="52" customWidth="1"/>
-    <col min="2565" max="2565" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2562" max="2562" width="17.375" style="52" customWidth="1"/>
+    <col min="2563" max="2563" width="12.5" style="52" customWidth="1"/>
+    <col min="2564" max="2564" width="11.25" style="52" customWidth="1"/>
+    <col min="2565" max="2565" width="11.125" style="52" customWidth="1"/>
     <col min="2566" max="2809" width="9" style="52"/>
-    <col min="2810" max="2810" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2811" max="2811" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2812" max="2812" width="11.265625" style="52" customWidth="1"/>
-    <col min="2813" max="2813" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2810" max="2810" width="17.375" style="52" customWidth="1"/>
+    <col min="2811" max="2811" width="12.5" style="52" customWidth="1"/>
+    <col min="2812" max="2812" width="11.25" style="52" customWidth="1"/>
+    <col min="2813" max="2813" width="11.125" style="52" customWidth="1"/>
     <col min="2814" max="2814" width="9" style="52"/>
-    <col min="2815" max="2815" width="4.265625" style="52" customWidth="1"/>
+    <col min="2815" max="2815" width="4.25" style="52" customWidth="1"/>
     <col min="2816" max="2817" width="9" style="52"/>
-    <col min="2818" max="2818" width="17.3984375" style="52" customWidth="1"/>
-    <col min="2819" max="2819" width="12.46484375" style="52" customWidth="1"/>
-    <col min="2820" max="2820" width="11.265625" style="52" customWidth="1"/>
-    <col min="2821" max="2821" width="11.1328125" style="52" customWidth="1"/>
+    <col min="2818" max="2818" width="17.375" style="52" customWidth="1"/>
+    <col min="2819" max="2819" width="12.5" style="52" customWidth="1"/>
+    <col min="2820" max="2820" width="11.25" style="52" customWidth="1"/>
+    <col min="2821" max="2821" width="11.125" style="52" customWidth="1"/>
     <col min="2822" max="3065" width="9" style="52"/>
-    <col min="3066" max="3066" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3067" max="3067" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3068" max="3068" width="11.265625" style="52" customWidth="1"/>
-    <col min="3069" max="3069" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3066" max="3066" width="17.375" style="52" customWidth="1"/>
+    <col min="3067" max="3067" width="12.5" style="52" customWidth="1"/>
+    <col min="3068" max="3068" width="11.25" style="52" customWidth="1"/>
+    <col min="3069" max="3069" width="11.125" style="52" customWidth="1"/>
     <col min="3070" max="3070" width="9" style="52"/>
-    <col min="3071" max="3071" width="4.265625" style="52" customWidth="1"/>
+    <col min="3071" max="3071" width="4.25" style="52" customWidth="1"/>
     <col min="3072" max="3073" width="9" style="52"/>
-    <col min="3074" max="3074" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3075" max="3075" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3076" max="3076" width="11.265625" style="52" customWidth="1"/>
-    <col min="3077" max="3077" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3074" max="3074" width="17.375" style="52" customWidth="1"/>
+    <col min="3075" max="3075" width="12.5" style="52" customWidth="1"/>
+    <col min="3076" max="3076" width="11.25" style="52" customWidth="1"/>
+    <col min="3077" max="3077" width="11.125" style="52" customWidth="1"/>
     <col min="3078" max="3321" width="9" style="52"/>
-    <col min="3322" max="3322" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3323" max="3323" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3324" max="3324" width="11.265625" style="52" customWidth="1"/>
-    <col min="3325" max="3325" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3322" max="3322" width="17.375" style="52" customWidth="1"/>
+    <col min="3323" max="3323" width="12.5" style="52" customWidth="1"/>
+    <col min="3324" max="3324" width="11.25" style="52" customWidth="1"/>
+    <col min="3325" max="3325" width="11.125" style="52" customWidth="1"/>
     <col min="3326" max="3326" width="9" style="52"/>
-    <col min="3327" max="3327" width="4.265625" style="52" customWidth="1"/>
+    <col min="3327" max="3327" width="4.25" style="52" customWidth="1"/>
     <col min="3328" max="3329" width="9" style="52"/>
-    <col min="3330" max="3330" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3331" max="3331" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3332" max="3332" width="11.265625" style="52" customWidth="1"/>
-    <col min="3333" max="3333" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3330" max="3330" width="17.375" style="52" customWidth="1"/>
+    <col min="3331" max="3331" width="12.5" style="52" customWidth="1"/>
+    <col min="3332" max="3332" width="11.25" style="52" customWidth="1"/>
+    <col min="3333" max="3333" width="11.125" style="52" customWidth="1"/>
     <col min="3334" max="3577" width="9" style="52"/>
-    <col min="3578" max="3578" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3579" max="3579" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3580" max="3580" width="11.265625" style="52" customWidth="1"/>
-    <col min="3581" max="3581" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3578" max="3578" width="17.375" style="52" customWidth="1"/>
+    <col min="3579" max="3579" width="12.5" style="52" customWidth="1"/>
+    <col min="3580" max="3580" width="11.25" style="52" customWidth="1"/>
+    <col min="3581" max="3581" width="11.125" style="52" customWidth="1"/>
     <col min="3582" max="3582" width="9" style="52"/>
-    <col min="3583" max="3583" width="4.265625" style="52" customWidth="1"/>
+    <col min="3583" max="3583" width="4.25" style="52" customWidth="1"/>
     <col min="3584" max="3585" width="9" style="52"/>
-    <col min="3586" max="3586" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3587" max="3587" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3588" max="3588" width="11.265625" style="52" customWidth="1"/>
-    <col min="3589" max="3589" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3586" max="3586" width="17.375" style="52" customWidth="1"/>
+    <col min="3587" max="3587" width="12.5" style="52" customWidth="1"/>
+    <col min="3588" max="3588" width="11.25" style="52" customWidth="1"/>
+    <col min="3589" max="3589" width="11.125" style="52" customWidth="1"/>
     <col min="3590" max="3833" width="9" style="52"/>
-    <col min="3834" max="3834" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3835" max="3835" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3836" max="3836" width="11.265625" style="52" customWidth="1"/>
-    <col min="3837" max="3837" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3834" max="3834" width="17.375" style="52" customWidth="1"/>
+    <col min="3835" max="3835" width="12.5" style="52" customWidth="1"/>
+    <col min="3836" max="3836" width="11.25" style="52" customWidth="1"/>
+    <col min="3837" max="3837" width="11.125" style="52" customWidth="1"/>
     <col min="3838" max="3838" width="9" style="52"/>
-    <col min="3839" max="3839" width="4.265625" style="52" customWidth="1"/>
+    <col min="3839" max="3839" width="4.25" style="52" customWidth="1"/>
     <col min="3840" max="3841" width="9" style="52"/>
-    <col min="3842" max="3842" width="17.3984375" style="52" customWidth="1"/>
-    <col min="3843" max="3843" width="12.46484375" style="52" customWidth="1"/>
-    <col min="3844" max="3844" width="11.265625" style="52" customWidth="1"/>
-    <col min="3845" max="3845" width="11.1328125" style="52" customWidth="1"/>
+    <col min="3842" max="3842" width="17.375" style="52" customWidth="1"/>
+    <col min="3843" max="3843" width="12.5" style="52" customWidth="1"/>
+    <col min="3844" max="3844" width="11.25" style="52" customWidth="1"/>
+    <col min="3845" max="3845" width="11.125" style="52" customWidth="1"/>
     <col min="3846" max="4089" width="9" style="52"/>
-    <col min="4090" max="4090" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4091" max="4091" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4092" max="4092" width="11.265625" style="52" customWidth="1"/>
-    <col min="4093" max="4093" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4090" max="4090" width="17.375" style="52" customWidth="1"/>
+    <col min="4091" max="4091" width="12.5" style="52" customWidth="1"/>
+    <col min="4092" max="4092" width="11.25" style="52" customWidth="1"/>
+    <col min="4093" max="4093" width="11.125" style="52" customWidth="1"/>
     <col min="4094" max="4094" width="9" style="52"/>
-    <col min="4095" max="4095" width="4.265625" style="52" customWidth="1"/>
+    <col min="4095" max="4095" width="4.25" style="52" customWidth="1"/>
     <col min="4096" max="4097" width="9" style="52"/>
-    <col min="4098" max="4098" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4099" max="4099" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4100" max="4100" width="11.265625" style="52" customWidth="1"/>
-    <col min="4101" max="4101" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4098" max="4098" width="17.375" style="52" customWidth="1"/>
+    <col min="4099" max="4099" width="12.5" style="52" customWidth="1"/>
+    <col min="4100" max="4100" width="11.25" style="52" customWidth="1"/>
+    <col min="4101" max="4101" width="11.125" style="52" customWidth="1"/>
     <col min="4102" max="4345" width="9" style="52"/>
-    <col min="4346" max="4346" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4347" max="4347" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4348" max="4348" width="11.265625" style="52" customWidth="1"/>
-    <col min="4349" max="4349" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4346" max="4346" width="17.375" style="52" customWidth="1"/>
+    <col min="4347" max="4347" width="12.5" style="52" customWidth="1"/>
+    <col min="4348" max="4348" width="11.25" style="52" customWidth="1"/>
+    <col min="4349" max="4349" width="11.125" style="52" customWidth="1"/>
     <col min="4350" max="4350" width="9" style="52"/>
-    <col min="4351" max="4351" width="4.265625" style="52" customWidth="1"/>
+    <col min="4351" max="4351" width="4.25" style="52" customWidth="1"/>
     <col min="4352" max="4353" width="9" style="52"/>
-    <col min="4354" max="4354" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4355" max="4355" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4356" max="4356" width="11.265625" style="52" customWidth="1"/>
-    <col min="4357" max="4357" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4354" max="4354" width="17.375" style="52" customWidth="1"/>
+    <col min="4355" max="4355" width="12.5" style="52" customWidth="1"/>
+    <col min="4356" max="4356" width="11.25" style="52" customWidth="1"/>
+    <col min="4357" max="4357" width="11.125" style="52" customWidth="1"/>
     <col min="4358" max="4601" width="9" style="52"/>
-    <col min="4602" max="4602" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4603" max="4603" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4604" max="4604" width="11.265625" style="52" customWidth="1"/>
-    <col min="4605" max="4605" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4602" max="4602" width="17.375" style="52" customWidth="1"/>
+    <col min="4603" max="4603" width="12.5" style="52" customWidth="1"/>
+    <col min="4604" max="4604" width="11.25" style="52" customWidth="1"/>
+    <col min="4605" max="4605" width="11.125" style="52" customWidth="1"/>
     <col min="4606" max="4606" width="9" style="52"/>
-    <col min="4607" max="4607" width="4.265625" style="52" customWidth="1"/>
+    <col min="4607" max="4607" width="4.25" style="52" customWidth="1"/>
     <col min="4608" max="4609" width="9" style="52"/>
-    <col min="4610" max="4610" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4611" max="4611" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4612" max="4612" width="11.265625" style="52" customWidth="1"/>
-    <col min="4613" max="4613" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4610" max="4610" width="17.375" style="52" customWidth="1"/>
+    <col min="4611" max="4611" width="12.5" style="52" customWidth="1"/>
+    <col min="4612" max="4612" width="11.25" style="52" customWidth="1"/>
+    <col min="4613" max="4613" width="11.125" style="52" customWidth="1"/>
     <col min="4614" max="4857" width="9" style="52"/>
-    <col min="4858" max="4858" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4859" max="4859" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4860" max="4860" width="11.265625" style="52" customWidth="1"/>
-    <col min="4861" max="4861" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4858" max="4858" width="17.375" style="52" customWidth="1"/>
+    <col min="4859" max="4859" width="12.5" style="52" customWidth="1"/>
+    <col min="4860" max="4860" width="11.25" style="52" customWidth="1"/>
+    <col min="4861" max="4861" width="11.125" style="52" customWidth="1"/>
     <col min="4862" max="4862" width="9" style="52"/>
-    <col min="4863" max="4863" width="4.265625" style="52" customWidth="1"/>
+    <col min="4863" max="4863" width="4.25" style="52" customWidth="1"/>
     <col min="4864" max="4865" width="9" style="52"/>
-    <col min="4866" max="4866" width="17.3984375" style="52" customWidth="1"/>
-    <col min="4867" max="4867" width="12.46484375" style="52" customWidth="1"/>
-    <col min="4868" max="4868" width="11.265625" style="52" customWidth="1"/>
-    <col min="4869" max="4869" width="11.1328125" style="52" customWidth="1"/>
+    <col min="4866" max="4866" width="17.375" style="52" customWidth="1"/>
+    <col min="4867" max="4867" width="12.5" style="52" customWidth="1"/>
+    <col min="4868" max="4868" width="11.25" style="52" customWidth="1"/>
+    <col min="4869" max="4869" width="11.125" style="52" customWidth="1"/>
     <col min="4870" max="5113" width="9" style="52"/>
-    <col min="5114" max="5114" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5115" max="5115" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5116" max="5116" width="11.265625" style="52" customWidth="1"/>
-    <col min="5117" max="5117" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5114" max="5114" width="17.375" style="52" customWidth="1"/>
+    <col min="5115" max="5115" width="12.5" style="52" customWidth="1"/>
+    <col min="5116" max="5116" width="11.25" style="52" customWidth="1"/>
+    <col min="5117" max="5117" width="11.125" style="52" customWidth="1"/>
     <col min="5118" max="5118" width="9" style="52"/>
-    <col min="5119" max="5119" width="4.265625" style="52" customWidth="1"/>
+    <col min="5119" max="5119" width="4.25" style="52" customWidth="1"/>
     <col min="5120" max="5121" width="9" style="52"/>
-    <col min="5122" max="5122" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5123" max="5123" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5124" max="5124" width="11.265625" style="52" customWidth="1"/>
-    <col min="5125" max="5125" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5122" max="5122" width="17.375" style="52" customWidth="1"/>
+    <col min="5123" max="5123" width="12.5" style="52" customWidth="1"/>
+    <col min="5124" max="5124" width="11.25" style="52" customWidth="1"/>
+    <col min="5125" max="5125" width="11.125" style="52" customWidth="1"/>
     <col min="5126" max="5369" width="9" style="52"/>
-    <col min="5370" max="5370" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5371" max="5371" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5372" max="5372" width="11.265625" style="52" customWidth="1"/>
-    <col min="5373" max="5373" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5370" max="5370" width="17.375" style="52" customWidth="1"/>
+    <col min="5371" max="5371" width="12.5" style="52" customWidth="1"/>
+    <col min="5372" max="5372" width="11.25" style="52" customWidth="1"/>
+    <col min="5373" max="5373" width="11.125" style="52" customWidth="1"/>
     <col min="5374" max="5374" width="9" style="52"/>
-    <col min="5375" max="5375" width="4.265625" style="52" customWidth="1"/>
+    <col min="5375" max="5375" width="4.25" style="52" customWidth="1"/>
     <col min="5376" max="5377" width="9" style="52"/>
-    <col min="5378" max="5378" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5379" max="5379" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5380" max="5380" width="11.265625" style="52" customWidth="1"/>
-    <col min="5381" max="5381" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5378" max="5378" width="17.375" style="52" customWidth="1"/>
+    <col min="5379" max="5379" width="12.5" style="52" customWidth="1"/>
+    <col min="5380" max="5380" width="11.25" style="52" customWidth="1"/>
+    <col min="5381" max="5381" width="11.125" style="52" customWidth="1"/>
     <col min="5382" max="5625" width="9" style="52"/>
-    <col min="5626" max="5626" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5627" max="5627" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5628" max="5628" width="11.265625" style="52" customWidth="1"/>
-    <col min="5629" max="5629" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5626" max="5626" width="17.375" style="52" customWidth="1"/>
+    <col min="5627" max="5627" width="12.5" style="52" customWidth="1"/>
+    <col min="5628" max="5628" width="11.25" style="52" customWidth="1"/>
+    <col min="5629" max="5629" width="11.125" style="52" customWidth="1"/>
     <col min="5630" max="5630" width="9" style="52"/>
-    <col min="5631" max="5631" width="4.265625" style="52" customWidth="1"/>
+    <col min="5631" max="5631" width="4.25" style="52" customWidth="1"/>
     <col min="5632" max="5633" width="9" style="52"/>
-    <col min="5634" max="5634" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5635" max="5635" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5636" max="5636" width="11.265625" style="52" customWidth="1"/>
-    <col min="5637" max="5637" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5634" max="5634" width="17.375" style="52" customWidth="1"/>
+    <col min="5635" max="5635" width="12.5" style="52" customWidth="1"/>
+    <col min="5636" max="5636" width="11.25" style="52" customWidth="1"/>
+    <col min="5637" max="5637" width="11.125" style="52" customWidth="1"/>
     <col min="5638" max="5881" width="9" style="52"/>
-    <col min="5882" max="5882" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5883" max="5883" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5884" max="5884" width="11.265625" style="52" customWidth="1"/>
-    <col min="5885" max="5885" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5882" max="5882" width="17.375" style="52" customWidth="1"/>
+    <col min="5883" max="5883" width="12.5" style="52" customWidth="1"/>
+    <col min="5884" max="5884" width="11.25" style="52" customWidth="1"/>
+    <col min="5885" max="5885" width="11.125" style="52" customWidth="1"/>
     <col min="5886" max="5886" width="9" style="52"/>
-    <col min="5887" max="5887" width="4.265625" style="52" customWidth="1"/>
+    <col min="5887" max="5887" width="4.25" style="52" customWidth="1"/>
     <col min="5888" max="5889" width="9" style="52"/>
-    <col min="5890" max="5890" width="17.3984375" style="52" customWidth="1"/>
-    <col min="5891" max="5891" width="12.46484375" style="52" customWidth="1"/>
-    <col min="5892" max="5892" width="11.265625" style="52" customWidth="1"/>
-    <col min="5893" max="5893" width="11.1328125" style="52" customWidth="1"/>
+    <col min="5890" max="5890" width="17.375" style="52" customWidth="1"/>
+    <col min="5891" max="5891" width="12.5" style="52" customWidth="1"/>
+    <col min="5892" max="5892" width="11.25" style="52" customWidth="1"/>
+    <col min="5893" max="5893" width="11.125" style="52" customWidth="1"/>
     <col min="5894" max="6137" width="9" style="52"/>
-    <col min="6138" max="6138" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6139" max="6139" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6140" max="6140" width="11.265625" style="52" customWidth="1"/>
-    <col min="6141" max="6141" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6138" max="6138" width="17.375" style="52" customWidth="1"/>
+    <col min="6139" max="6139" width="12.5" style="52" customWidth="1"/>
+    <col min="6140" max="6140" width="11.25" style="52" customWidth="1"/>
+    <col min="6141" max="6141" width="11.125" style="52" customWidth="1"/>
     <col min="6142" max="6142" width="9" style="52"/>
-    <col min="6143" max="6143" width="4.265625" style="52" customWidth="1"/>
+    <col min="6143" max="6143" width="4.25" style="52" customWidth="1"/>
     <col min="6144" max="6145" width="9" style="52"/>
-    <col min="6146" max="6146" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6147" max="6147" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6148" max="6148" width="11.265625" style="52" customWidth="1"/>
-    <col min="6149" max="6149" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6146" max="6146" width="17.375" style="52" customWidth="1"/>
+    <col min="6147" max="6147" width="12.5" style="52" customWidth="1"/>
+    <col min="6148" max="6148" width="11.25" style="52" customWidth="1"/>
+    <col min="6149" max="6149" width="11.125" style="52" customWidth="1"/>
     <col min="6150" max="6393" width="9" style="52"/>
-    <col min="6394" max="6394" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6395" max="6395" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6396" max="6396" width="11.265625" style="52" customWidth="1"/>
-    <col min="6397" max="6397" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6394" max="6394" width="17.375" style="52" customWidth="1"/>
+    <col min="6395" max="6395" width="12.5" style="52" customWidth="1"/>
+    <col min="6396" max="6396" width="11.25" style="52" customWidth="1"/>
+    <col min="6397" max="6397" width="11.125" style="52" customWidth="1"/>
     <col min="6398" max="6398" width="9" style="52"/>
-    <col min="6399" max="6399" width="4.265625" style="52" customWidth="1"/>
+    <col min="6399" max="6399" width="4.25" style="52" customWidth="1"/>
     <col min="6400" max="6401" width="9" style="52"/>
-    <col min="6402" max="6402" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6403" max="6403" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6404" max="6404" width="11.265625" style="52" customWidth="1"/>
-    <col min="6405" max="6405" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6402" max="6402" width="17.375" style="52" customWidth="1"/>
+    <col min="6403" max="6403" width="12.5" style="52" customWidth="1"/>
+    <col min="6404" max="6404" width="11.25" style="52" customWidth="1"/>
+    <col min="6405" max="6405" width="11.125" style="52" customWidth="1"/>
     <col min="6406" max="6649" width="9" style="52"/>
-    <col min="6650" max="6650" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6651" max="6651" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6652" max="6652" width="11.265625" style="52" customWidth="1"/>
-    <col min="6653" max="6653" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6650" max="6650" width="17.375" style="52" customWidth="1"/>
+    <col min="6651" max="6651" width="12.5" style="52" customWidth="1"/>
+    <col min="6652" max="6652" width="11.25" style="52" customWidth="1"/>
+    <col min="6653" max="6653" width="11.125" style="52" customWidth="1"/>
     <col min="6654" max="6654" width="9" style="52"/>
-    <col min="6655" max="6655" width="4.265625" style="52" customWidth="1"/>
+    <col min="6655" max="6655" width="4.25" style="52" customWidth="1"/>
     <col min="6656" max="6657" width="9" style="52"/>
-    <col min="6658" max="6658" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6659" max="6659" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6660" max="6660" width="11.265625" style="52" customWidth="1"/>
-    <col min="6661" max="6661" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6658" max="6658" width="17.375" style="52" customWidth="1"/>
+    <col min="6659" max="6659" width="12.5" style="52" customWidth="1"/>
+    <col min="6660" max="6660" width="11.25" style="52" customWidth="1"/>
+    <col min="6661" max="6661" width="11.125" style="52" customWidth="1"/>
     <col min="6662" max="6905" width="9" style="52"/>
-    <col min="6906" max="6906" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6907" max="6907" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6908" max="6908" width="11.265625" style="52" customWidth="1"/>
-    <col min="6909" max="6909" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6906" max="6906" width="17.375" style="52" customWidth="1"/>
+    <col min="6907" max="6907" width="12.5" style="52" customWidth="1"/>
+    <col min="6908" max="6908" width="11.25" style="52" customWidth="1"/>
+    <col min="6909" max="6909" width="11.125" style="52" customWidth="1"/>
     <col min="6910" max="6910" width="9" style="52"/>
-    <col min="6911" max="6911" width="4.265625" style="52" customWidth="1"/>
+    <col min="6911" max="6911" width="4.25" style="52" customWidth="1"/>
     <col min="6912" max="6913" width="9" style="52"/>
-    <col min="6914" max="6914" width="17.3984375" style="52" customWidth="1"/>
-    <col min="6915" max="6915" width="12.46484375" style="52" customWidth="1"/>
-    <col min="6916" max="6916" width="11.265625" style="52" customWidth="1"/>
-    <col min="6917" max="6917" width="11.1328125" style="52" customWidth="1"/>
+    <col min="6914" max="6914" width="17.375" style="52" customWidth="1"/>
+    <col min="6915" max="6915" width="12.5" style="52" customWidth="1"/>
+    <col min="6916" max="6916" width="11.25" style="52" customWidth="1"/>
+    <col min="6917" max="6917" width="11.125" style="52" customWidth="1"/>
     <col min="6918" max="7161" width="9" style="52"/>
-    <col min="7162" max="7162" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7163" max="7163" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7164" max="7164" width="11.265625" style="52" customWidth="1"/>
-    <col min="7165" max="7165" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7162" max="7162" width="17.375" style="52" customWidth="1"/>
+    <col min="7163" max="7163" width="12.5" style="52" customWidth="1"/>
+    <col min="7164" max="7164" width="11.25" style="52" customWidth="1"/>
+    <col min="7165" max="7165" width="11.125" style="52" customWidth="1"/>
     <col min="7166" max="7166" width="9" style="52"/>
-    <col min="7167" max="7167" width="4.265625" style="52" customWidth="1"/>
+    <col min="7167" max="7167" width="4.25" style="52" customWidth="1"/>
     <col min="7168" max="7169" width="9" style="52"/>
-    <col min="7170" max="7170" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7171" max="7171" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7172" max="7172" width="11.265625" style="52" customWidth="1"/>
-    <col min="7173" max="7173" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7170" max="7170" width="17.375" style="52" customWidth="1"/>
+    <col min="7171" max="7171" width="12.5" style="52" customWidth="1"/>
+    <col min="7172" max="7172" width="11.25" style="52" customWidth="1"/>
+    <col min="7173" max="7173" width="11.125" style="52" customWidth="1"/>
     <col min="7174" max="7417" width="9" style="52"/>
-    <col min="7418" max="7418" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7419" max="7419" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7420" max="7420" width="11.265625" style="52" customWidth="1"/>
-    <col min="7421" max="7421" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7418" max="7418" width="17.375" style="52" customWidth="1"/>
+    <col min="7419" max="7419" width="12.5" style="52" customWidth="1"/>
+    <col min="7420" max="7420" width="11.25" style="52" customWidth="1"/>
+    <col min="7421" max="7421" width="11.125" style="52" customWidth="1"/>
     <col min="7422" max="7422" width="9" style="52"/>
-    <col min="7423" max="7423" width="4.265625" style="52" customWidth="1"/>
+    <col min="7423" max="7423" width="4.25" style="52" customWidth="1"/>
     <col min="7424" max="7425" width="9" style="52"/>
-    <col min="7426" max="7426" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7427" max="7427" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7428" max="7428" width="11.265625" style="52" customWidth="1"/>
-    <col min="7429" max="7429" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7426" max="7426" width="17.375" style="52" customWidth="1"/>
+    <col min="7427" max="7427" width="12.5" style="52" customWidth="1"/>
+    <col min="7428" max="7428" width="11.25" style="52" customWidth="1"/>
+    <col min="7429" max="7429" width="11.125" style="52" customWidth="1"/>
     <col min="7430" max="7673" width="9" style="52"/>
-    <col min="7674" max="7674" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7675" max="7675" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7676" max="7676" width="11.265625" style="52" customWidth="1"/>
-    <col min="7677" max="7677" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7674" max="7674" width="17.375" style="52" customWidth="1"/>
+    <col min="7675" max="7675" width="12.5" style="52" customWidth="1"/>
+    <col min="7676" max="7676" width="11.25" style="52" customWidth="1"/>
+    <col min="7677" max="7677" width="11.125" style="52" customWidth="1"/>
     <col min="7678" max="7678" width="9" style="52"/>
-    <col min="7679" max="7679" width="4.265625" style="52" customWidth="1"/>
+    <col min="7679" max="7679" width="4.25" style="52" customWidth="1"/>
     <col min="7680" max="7681" width="9" style="52"/>
-    <col min="7682" max="7682" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7683" max="7683" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7684" max="7684" width="11.265625" style="52" customWidth="1"/>
-    <col min="7685" max="7685" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7682" max="7682" width="17.375" style="52" customWidth="1"/>
+    <col min="7683" max="7683" width="12.5" style="52" customWidth="1"/>
+    <col min="7684" max="7684" width="11.25" style="52" customWidth="1"/>
+    <col min="7685" max="7685" width="11.125" style="52" customWidth="1"/>
     <col min="7686" max="7929" width="9" style="52"/>
-    <col min="7930" max="7930" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7931" max="7931" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7932" max="7932" width="11.265625" style="52" customWidth="1"/>
-    <col min="7933" max="7933" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7930" max="7930" width="17.375" style="52" customWidth="1"/>
+    <col min="7931" max="7931" width="12.5" style="52" customWidth="1"/>
+    <col min="7932" max="7932" width="11.25" style="52" customWidth="1"/>
+    <col min="7933" max="7933" width="11.125" style="52" customWidth="1"/>
     <col min="7934" max="7934" width="9" style="52"/>
-    <col min="7935" max="7935" width="4.265625" style="52" customWidth="1"/>
+    <col min="7935" max="7935" width="4.25" style="52" customWidth="1"/>
     <col min="7936" max="7937" width="9" style="52"/>
-    <col min="7938" max="7938" width="17.3984375" style="52" customWidth="1"/>
-    <col min="7939" max="7939" width="12.46484375" style="52" customWidth="1"/>
-    <col min="7940" max="7940" width="11.265625" style="52" customWidth="1"/>
-    <col min="7941" max="7941" width="11.1328125" style="52" customWidth="1"/>
+    <col min="7938" max="7938" width="17.375" style="52" customWidth="1"/>
+    <col min="7939" max="7939" width="12.5" style="52" customWidth="1"/>
+    <col min="7940" max="7940" width="11.25" style="52" customWidth="1"/>
+    <col min="7941" max="7941" width="11.125" style="52" customWidth="1"/>
     <col min="7942" max="8185" width="9" style="52"/>
-    <col min="8186" max="8186" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8187" max="8187" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8188" max="8188" width="11.265625" style="52" customWidth="1"/>
-    <col min="8189" max="8189" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8186" max="8186" width="17.375" style="52" customWidth="1"/>
+    <col min="8187" max="8187" width="12.5" style="52" customWidth="1"/>
+    <col min="8188" max="8188" width="11.25" style="52" customWidth="1"/>
+    <col min="8189" max="8189" width="11.125" style="52" customWidth="1"/>
     <col min="8190" max="8190" width="9" style="52"/>
-    <col min="8191" max="8191" width="4.265625" style="52" customWidth="1"/>
+    <col min="8191" max="8191" width="4.25" style="52" customWidth="1"/>
     <col min="8192" max="8193" width="9" style="52"/>
-    <col min="8194" max="8194" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8195" max="8195" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8196" max="8196" width="11.265625" style="52" customWidth="1"/>
-    <col min="8197" max="8197" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8194" max="8194" width="17.375" style="52" customWidth="1"/>
+    <col min="8195" max="8195" width="12.5" style="52" customWidth="1"/>
+    <col min="8196" max="8196" width="11.25" style="52" customWidth="1"/>
+    <col min="8197" max="8197" width="11.125" style="52" customWidth="1"/>
     <col min="8198" max="8441" width="9" style="52"/>
-    <col min="8442" max="8442" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8443" max="8443" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8444" max="8444" width="11.265625" style="52" customWidth="1"/>
-    <col min="8445" max="8445" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8442" max="8442" width="17.375" style="52" customWidth="1"/>
+    <col min="8443" max="8443" width="12.5" style="52" customWidth="1"/>
+    <col min="8444" max="8444" width="11.25" style="52" customWidth="1"/>
+    <col min="8445" max="8445" width="11.125" style="52" customWidth="1"/>
     <col min="8446" max="8446" width="9" style="52"/>
-    <col min="8447" max="8447" width="4.265625" style="52" customWidth="1"/>
+    <col min="8447" max="8447" width="4.25" style="52" customWidth="1"/>
     <col min="8448" max="8449" width="9" style="52"/>
-    <col min="8450" max="8450" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8451" max="8451" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8452" max="8452" width="11.265625" style="52" customWidth="1"/>
-    <col min="8453" max="8453" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8450" max="8450" width="17.375" style="52" customWidth="1"/>
+    <col min="8451" max="8451" width="12.5" style="52" customWidth="1"/>
+    <col min="8452" max="8452" width="11.25" style="52" customWidth="1"/>
+    <col min="8453" max="8453" width="11.125" style="52" customWidth="1"/>
     <col min="8454" max="8697" width="9" style="52"/>
-    <col min="8698" max="8698" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8699" max="8699" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8700" max="8700" width="11.265625" style="52" customWidth="1"/>
-    <col min="8701" max="8701" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8698" max="8698" width="17.375" style="52" customWidth="1"/>
+    <col min="8699" max="8699" width="12.5" style="52" customWidth="1"/>
+    <col min="8700" max="8700" width="11.25" style="52" customWidth="1"/>
+    <col min="8701" max="8701" width="11.125" style="52" customWidth="1"/>
     <col min="8702" max="8702" width="9" style="52"/>
-    <col min="8703" max="8703" width="4.265625" style="52" customWidth="1"/>
+    <col min="8703" max="8703" width="4.25" style="52" customWidth="1"/>
     <col min="8704" max="8705" width="9" style="52"/>
-    <col min="8706" max="8706" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8707" max="8707" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8708" max="8708" width="11.265625" style="52" customWidth="1"/>
-    <col min="8709" max="8709" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8706" max="8706" width="17.375" style="52" customWidth="1"/>
+    <col min="8707" max="8707" width="12.5" style="52" customWidth="1"/>
+    <col min="8708" max="8708" width="11.25" style="52" customWidth="1"/>
+    <col min="8709" max="8709" width="11.125" style="52" customWidth="1"/>
     <col min="8710" max="8953" width="9" style="52"/>
-    <col min="8954" max="8954" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8955" max="8955" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8956" max="8956" width="11.265625" style="52" customWidth="1"/>
-    <col min="8957" max="8957" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8954" max="8954" width="17.375" style="52" customWidth="1"/>
+    <col min="8955" max="8955" width="12.5" style="52" customWidth="1"/>
+    <col min="8956" max="8956" width="11.25" style="52" customWidth="1"/>
+    <col min="8957" max="8957" width="11.125" style="52" customWidth="1"/>
     <col min="8958" max="8958" width="9" style="52"/>
-    <col min="8959" max="8959" width="4.265625" style="52" customWidth="1"/>
+    <col min="8959" max="8959" width="4.25" style="52" customWidth="1"/>
     <col min="8960" max="8961" width="9" style="52"/>
-    <col min="8962" max="8962" width="17.3984375" style="52" customWidth="1"/>
-    <col min="8963" max="8963" width="12.46484375" style="52" customWidth="1"/>
-    <col min="8964" max="8964" width="11.265625" style="52" customWidth="1"/>
-    <col min="8965" max="8965" width="11.1328125" style="52" customWidth="1"/>
+    <col min="8962" max="8962" width="17.375" style="52" customWidth="1"/>
+    <col min="8963" max="8963" width="12.5" style="52" customWidth="1"/>
+    <col min="8964" max="8964" width="11.25" style="52" customWidth="1"/>
+    <col min="8965" max="8965" width="11.125" style="52" customWidth="1"/>
     <col min="8966" max="9209" width="9" style="52"/>
-    <col min="9210" max="9210" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9211" max="9211" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9212" max="9212" width="11.265625" style="52" customWidth="1"/>
-    <col min="9213" max="9213" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9210" max="9210" width="17.375" style="52" customWidth="1"/>
+    <col min="9211" max="9211" width="12.5" style="52" customWidth="1"/>
+    <col min="9212" max="9212" width="11.25" style="52" customWidth="1"/>
+    <col min="9213" max="9213" width="11.125" style="52" customWidth="1"/>
     <col min="9214" max="9214" width="9" style="52"/>
-    <col min="9215" max="9215" width="4.265625" style="52" customWidth="1"/>
+    <col min="9215" max="9215" width="4.25" style="52" customWidth="1"/>
     <col min="9216" max="9217" width="9" style="52"/>
-    <col min="9218" max="9218" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9219" max="9219" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9220" max="9220" width="11.265625" style="52" customWidth="1"/>
-    <col min="9221" max="9221" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9218" max="9218" width="17.375" style="52" customWidth="1"/>
+    <col min="9219" max="9219" width="12.5" style="52" customWidth="1"/>
+    <col min="9220" max="9220" width="11.25" style="52" customWidth="1"/>
+    <col min="9221" max="9221" width="11.125" style="52" customWidth="1"/>
     <col min="9222" max="9465" width="9" style="52"/>
-    <col min="9466" max="9466" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9467" max="9467" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9468" max="9468" width="11.265625" style="52" customWidth="1"/>
-    <col min="9469" max="9469" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9466" max="9466" width="17.375" style="52" customWidth="1"/>
+    <col min="9467" max="9467" width="12.5" style="52" customWidth="1"/>
+    <col min="9468" max="9468" width="11.25" style="52" customWidth="1"/>
+    <col min="9469" max="9469" width="11.125" style="52" customWidth="1"/>
     <col min="9470" max="9470" width="9" style="52"/>
-    <col min="9471" max="9471" width="4.265625" style="52" customWidth="1"/>
+    <col min="9471" max="9471" width="4.25" style="52" customWidth="1"/>
     <col min="9472" max="9473" width="9" style="52"/>
-    <col min="9474" max="9474" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9475" max="9475" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9476" max="9476" width="11.265625" style="52" customWidth="1"/>
-    <col min="9477" max="9477" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9474" max="9474" width="17.375" style="52" customWidth="1"/>
+    <col min="9475" max="9475" width="12.5" style="52" customWidth="1"/>
+    <col min="9476" max="9476" width="11.25" style="52" customWidth="1"/>
+    <col min="9477" max="9477" width="11.125" style="52" customWidth="1"/>
     <col min="9478" max="9721" width="9" style="52"/>
-    <col min="9722" max="9722" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9723" max="9723" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9724" max="9724" width="11.265625" style="52" customWidth="1"/>
-    <col min="9725" max="9725" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9722" max="9722" width="17.375" style="52" customWidth="1"/>
+    <col min="9723" max="9723" width="12.5" style="52" customWidth="1"/>
+    <col min="9724" max="9724" width="11.25" style="52" customWidth="1"/>
+    <col min="9725" max="9725" width="11.125" style="52" customWidth="1"/>
     <col min="9726" max="9726" width="9" style="52"/>
-    <col min="9727" max="9727" width="4.265625" style="52" customWidth="1"/>
+    <col min="9727" max="9727" width="4.25" style="52" customWidth="1"/>
     <col min="9728" max="9729" width="9" style="52"/>
-    <col min="9730" max="9730" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9731" max="9731" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9732" max="9732" width="11.265625" style="52" customWidth="1"/>
-    <col min="9733" max="9733" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9730" max="9730" width="17.375" style="52" customWidth="1"/>
+    <col min="9731" max="9731" width="12.5" style="52" customWidth="1"/>
+    <col min="9732" max="9732" width="11.25" style="52" customWidth="1"/>
+    <col min="9733" max="9733" width="11.125" style="52" customWidth="1"/>
     <col min="9734" max="9977" width="9" style="52"/>
-    <col min="9978" max="9978" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9979" max="9979" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9980" max="9980" width="11.265625" style="52" customWidth="1"/>
-    <col min="9981" max="9981" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9978" max="9978" width="17.375" style="52" customWidth="1"/>
+    <col min="9979" max="9979" width="12.5" style="52" customWidth="1"/>
+    <col min="9980" max="9980" width="11.25" style="52" customWidth="1"/>
+    <col min="9981" max="9981" width="11.125" style="52" customWidth="1"/>
     <col min="9982" max="9982" width="9" style="52"/>
-    <col min="9983" max="9983" width="4.265625" style="52" customWidth="1"/>
+    <col min="9983" max="9983" width="4.25" style="52" customWidth="1"/>
     <col min="9984" max="9985" width="9" style="52"/>
-    <col min="9986" max="9986" width="17.3984375" style="52" customWidth="1"/>
-    <col min="9987" max="9987" width="12.46484375" style="52" customWidth="1"/>
-    <col min="9988" max="9988" width="11.265625" style="52" customWidth="1"/>
-    <col min="9989" max="9989" width="11.1328125" style="52" customWidth="1"/>
+    <col min="9986" max="9986" width="17.375" style="52" customWidth="1"/>
+    <col min="9987" max="9987" width="12.5" style="52" customWidth="1"/>
+    <col min="9988" max="9988" width="11.25" style="52" customWidth="1"/>
+    <col min="9989" max="9989" width="11.125" style="52" customWidth="1"/>
     <col min="9990" max="10233" width="9" style="52"/>
-    <col min="10234" max="10234" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10235" max="10235" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10236" max="10236" width="11.265625" style="52" customWidth="1"/>
-    <col min="10237" max="10237" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10234" max="10234" width="17.375" style="52" customWidth="1"/>
+    <col min="10235" max="10235" width="12.5" style="52" customWidth="1"/>
+    <col min="10236" max="10236" width="11.25" style="52" customWidth="1"/>
+    <col min="10237" max="10237" width="11.125" style="52" customWidth="1"/>
     <col min="10238" max="10238" width="9" style="52"/>
-    <col min="10239" max="10239" width="4.265625" style="52" customWidth="1"/>
+    <col min="10239" max="10239" width="4.25" style="52" customWidth="1"/>
     <col min="10240" max="10241" width="9" style="52"/>
-    <col min="10242" max="10242" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10243" max="10243" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10244" max="10244" width="11.265625" style="52" customWidth="1"/>
-    <col min="10245" max="10245" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10242" max="10242" width="17.375" style="52" customWidth="1"/>
+    <col min="10243" max="10243" width="12.5" style="52" customWidth="1"/>
+    <col min="10244" max="10244" width="11.25" style="52" customWidth="1"/>
+    <col min="10245" max="10245" width="11.125" style="52" customWidth="1"/>
     <col min="10246" max="10489" width="9" style="52"/>
-    <col min="10490" max="10490" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10491" max="10491" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10492" max="10492" width="11.265625" style="52" customWidth="1"/>
-    <col min="10493" max="10493" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10490" max="10490" width="17.375" style="52" customWidth="1"/>
+    <col min="10491" max="10491" width="12.5" style="52" customWidth="1"/>
+    <col min="10492" max="10492" width="11.25" style="52" customWidth="1"/>
+    <col min="10493" max="10493" width="11.125" style="52" customWidth="1"/>
     <col min="10494" max="10494" width="9" style="52"/>
-    <col min="10495" max="10495" width="4.265625" style="52" customWidth="1"/>
+    <col min="10495" max="10495" width="4.25" style="52" customWidth="1"/>
     <col min="10496" max="10497" width="9" style="52"/>
-    <col min="10498" max="10498" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10499" max="10499" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10500" max="10500" width="11.265625" style="52" customWidth="1"/>
-    <col min="10501" max="10501" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10498" max="10498" width="17.375" style="52" customWidth="1"/>
+    <col min="10499" max="10499" width="12.5" style="52" customWidth="1"/>
+    <col min="10500" max="10500" width="11.25" style="52" customWidth="1"/>
+    <col min="10501" max="10501" width="11.125" style="52" customWidth="1"/>
     <col min="10502" max="10745" width="9" style="52"/>
-    <col min="10746" max="10746" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10747" max="10747" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10748" max="10748" width="11.265625" style="52" customWidth="1"/>
-    <col min="10749" max="10749" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10746" max="10746" width="17.375" style="52" customWidth="1"/>
+    <col min="10747" max="10747" width="12.5" style="52" customWidth="1"/>
+    <col min="10748" max="10748" width="11.25" style="52" customWidth="1"/>
+    <col min="10749" max="10749" width="11.125" style="52" customWidth="1"/>
     <col min="10750" max="10750" width="9" style="52"/>
-    <col min="10751" max="10751" width="4.265625" style="52" customWidth="1"/>
+    <col min="10751" max="10751" width="4.25" style="52" customWidth="1"/>
     <col min="10752" max="10753" width="9" style="52"/>
-    <col min="10754" max="10754" width="17.3984375" style="52" customWidth="1"/>
-    <col min="10755" max="10755" width="12.46484375" style="52" customWidth="1"/>
-    <col min="10756" max="10756" width="11.265625" style="52" customWidth="1"/>
-    <col min="10757" max="10757" width="11.1328125" style="52" customWidth="1"/>
+    <col min="10754" max="10754" width="17.375" style="52" customWidth="1"/>
+    <col min="10755" max="10755" width="12.5" style="52" customWidth="1"/>
+    <col min="10756" max="10756" width="11.25" style="52" customWidth="1"/>
+    <col min="10757" max="10757" width="11.125" style="52" customWidth="1"/>
     <col min="10758" max="11001" width="9" style="52"/>
-    <col min="11002" max="11002" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11003" max="11003" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11004" max="11004" width="11.265625" style="52" customWidth="1"/>
-    <col min="11005" max="11005" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11002" max="11002" width="17.375" style="52" customWidth="1"/>
+    <col min="11003" max="11003" width="12.5" style="52" customWidth="1"/>
+    <col min="11004" max="11004" width="11.25" style="52" customWidth="1"/>
+    <col min="11005" max="11005" width="11.125" style="52" customWidth="1"/>
     <col min="11006" max="11006" width="9" style="52"/>
-    <col min="11007" max="11007" width="4.265625" style="52" customWidth="1"/>
+    <col min="11007" max="11007" width="4.25" style="52" customWidth="1"/>
     <col min="11008" max="11009" width="9" style="52"/>
-    <col min="11010" max="11010" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11011" max="11011" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11012" max="11012" width="11.265625" style="52" customWidth="1"/>
-    <col min="11013" max="11013" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11010" max="11010" width="17.375" style="52" customWidth="1"/>
+    <col min="11011" max="11011" width="12.5" style="52" customWidth="1"/>
+    <col min="11012" max="11012" width="11.25" style="52" customWidth="1"/>
+    <col min="11013" max="11013" width="11.125" style="52" customWidth="1"/>
     <col min="11014" max="11257" width="9" style="52"/>
-    <col min="11258" max="11258" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11259" max="11259" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11260" max="11260" width="11.265625" style="52" customWidth="1"/>
-    <col min="11261" max="11261" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11258" max="11258" width="17.375" style="52" customWidth="1"/>
+    <col min="11259" max="11259" width="12.5" style="52" customWidth="1"/>
+    <col min="11260" max="11260" width="11.25" style="52" customWidth="1"/>
+    <col min="11261" max="11261" width="11.125" style="52" customWidth="1"/>
     <col min="11262" max="11262" width="9" style="52"/>
-    <col min="11263" max="11263" width="4.265625" style="52" customWidth="1"/>
+    <col min="11263" max="11263" width="4.25" style="52" customWidth="1"/>
     <col min="11264" max="11265" width="9" style="52"/>
-    <col min="11266" max="11266" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11267" max="11267" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11268" max="11268" width="11.265625" style="52" customWidth="1"/>
-    <col min="11269" max="11269" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11266" max="11266" width="17.375" style="52" customWidth="1"/>
+    <col min="11267" max="11267" width="12.5" style="52" customWidth="1"/>
+    <col min="11268" max="11268" width="11.25" style="52" customWidth="1"/>
+    <col min="11269" max="11269" width="11.125" style="52" customWidth="1"/>
     <col min="11270" max="11513" width="9" style="52"/>
-    <col min="11514" max="11514" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11515" max="11515" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11516" max="11516" width="11.265625" style="52" customWidth="1"/>
-    <col min="11517" max="11517" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11514" max="11514" width="17.375" style="52" customWidth="1"/>
+    <col min="11515" max="11515" width="12.5" style="52" customWidth="1"/>
+    <col min="11516" max="11516" width="11.25" style="52" customWidth="1"/>
+    <col min="11517" max="11517" width="11.125" style="52" customWidth="1"/>
     <col min="11518" max="11518" width="9" style="52"/>
-    <col min="11519" max="11519" width="4.265625" style="52" customWidth="1"/>
+    <col min="11519" max="11519" width="4.25" style="52" customWidth="1"/>
     <col min="11520" max="11521" width="9" style="52"/>
-    <col min="11522" max="11522" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11523" max="11523" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11524" max="11524" width="11.265625" style="52" customWidth="1"/>
-    <col min="11525" max="11525" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11522" max="11522" width="17.375" style="52" customWidth="1"/>
+    <col min="11523" max="11523" width="12.5" style="52" customWidth="1"/>
+    <col min="11524" max="11524" width="11.25" style="52" customWidth="1"/>
+    <col min="11525" max="11525" width="11.125" style="52" customWidth="1"/>
     <col min="11526" max="11769" width="9" style="52"/>
-    <col min="11770" max="11770" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11771" max="11771" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11772" max="11772" width="11.265625" style="52" customWidth="1"/>
-    <col min="11773" max="11773" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11770" max="11770" width="17.375" style="52" customWidth="1"/>
+    <col min="11771" max="11771" width="12.5" style="52" customWidth="1"/>
+    <col min="11772" max="11772" width="11.25" style="52" customWidth="1"/>
+    <col min="11773" max="11773" width="11.125" style="52" customWidth="1"/>
     <col min="11774" max="11774" width="9" style="52"/>
-    <col min="11775" max="11775" width="4.265625" style="52" customWidth="1"/>
+    <col min="11775" max="11775" width="4.25" style="52" customWidth="1"/>
     <col min="11776" max="11777" width="9" style="52"/>
-    <col min="11778" max="11778" width="17.3984375" style="52" customWidth="1"/>
-    <col min="11779" max="11779" width="12.46484375" style="52" customWidth="1"/>
-    <col min="11780" max="11780" width="11.265625" style="52" customWidth="1"/>
-    <col min="11781" max="11781" width="11.1328125" style="52" customWidth="1"/>
+    <col min="11778" max="11778" width="17.375" style="52" customWidth="1"/>
+    <col min="11779" max="11779" width="12.5" style="52" customWidth="1"/>
+    <col min="11780" max="11780" width="11.25" style="52" customWidth="1"/>
+    <col min="11781" max="11781" width="11.125" style="52" customWidth="1"/>
     <col min="11782" max="12025" width="9" style="52"/>
-    <col min="12026" max="12026" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12027" max="12027" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12028" max="12028" width="11.265625" style="52" customWidth="1"/>
-    <col min="12029" max="12029" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12026" max="12026" width="17.375" style="52" customWidth="1"/>
+    <col min="12027" max="12027" width="12.5" style="52" customWidth="1"/>
+    <col min="12028" max="12028" width="11.25" style="52" customWidth="1"/>
+    <col min="12029" max="12029" width="11.125" style="52" customWidth="1"/>
     <col min="12030" max="12030" width="9" style="52"/>
-    <col min="12031" max="12031" width="4.265625" style="52" customWidth="1"/>
+    <col min="12031" max="12031" width="4.25" style="52" customWidth="1"/>
     <col min="12032" max="12033" width="9" style="52"/>
-    <col min="12034" max="12034" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12035" max="12035" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12036" max="12036" width="11.265625" style="52" customWidth="1"/>
-    <col min="12037" max="12037" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12034" max="12034" width="17.375" style="52" customWidth="1"/>
+    <col min="12035" max="12035" width="12.5" style="52" customWidth="1"/>
+    <col min="12036" max="12036" width="11.25" style="52" customWidth="1"/>
+    <col min="12037" max="12037" width="11.125" style="52" customWidth="1"/>
     <col min="12038" max="12281" width="9" style="52"/>
-    <col min="12282" max="12282" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12283" max="12283" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12284" max="12284" width="11.265625" style="52" customWidth="1"/>
-    <col min="12285" max="12285" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12282" max="12282" width="17.375" style="52" customWidth="1"/>
+    <col min="12283" max="12283" width="12.5" style="52" customWidth="1"/>
+    <col min="12284" max="12284" width="11.25" style="52" customWidth="1"/>
+    <col min="12285" max="12285" width="11.125" style="52" customWidth="1"/>
     <col min="12286" max="12286" width="9" style="52"/>
-    <col min="12287" max="12287" width="4.265625" style="52" customWidth="1"/>
+    <col min="12287" max="12287" width="4.25" style="52" customWidth="1"/>
     <col min="12288" max="12289" width="9" style="52"/>
-    <col min="12290" max="12290" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12291" max="12291" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12292" max="12292" width="11.265625" style="52" customWidth="1"/>
-    <col min="12293" max="12293" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12290" max="12290" width="17.375" style="52" customWidth="1"/>
+    <col min="12291" max="12291" width="12.5" style="52" customWidth="1"/>
+    <col min="12292" max="12292" width="11.25" style="52" customWidth="1"/>
+    <col min="12293" max="12293" width="11.125" style="52" customWidth="1"/>
     <col min="12294" max="12537" width="9" style="52"/>
-    <col min="12538" max="12538" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12539" max="12539" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12540" max="12540" width="11.265625" style="52" customWidth="1"/>
-    <col min="12541" max="12541" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12538" max="12538" width="17.375" style="52" customWidth="1"/>
+    <col min="12539" max="12539" width="12.5" style="52" customWidth="1"/>
+    <col min="12540" max="12540" width="11.25" style="52" customWidth="1"/>
+    <col min="12541" max="12541" width="11.125" style="52" customWidth="1"/>
     <col min="12542" max="12542" width="9" style="52"/>
-    <col min="12543" max="12543" width="4.265625" style="52" customWidth="1"/>
+    <col min="12543" max="12543" width="4.25" style="52" customWidth="1"/>
     <col min="12544" max="12545" width="9" style="52"/>
-    <col min="12546" max="12546" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12547" max="12547" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12548" max="12548" width="11.265625" style="52" customWidth="1"/>
-    <col min="12549" max="12549" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12546" max="12546" width="17.375" style="52" customWidth="1"/>
+    <col min="12547" max="12547" width="12.5" style="52" customWidth="1"/>
+    <col min="12548" max="12548" width="11.25" style="52" customWidth="1"/>
+    <col min="12549" max="12549" width="11.125" style="52" customWidth="1"/>
     <col min="12550" max="12793" width="9" style="52"/>
-    <col min="12794" max="12794" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12795" max="12795" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12796" max="12796" width="11.265625" style="52" customWidth="1"/>
-    <col min="12797" max="12797" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12794" max="12794" width="17.375" style="52" customWidth="1"/>
+    <col min="12795" max="12795" width="12.5" style="52" customWidth="1"/>
+    <col min="12796" max="12796" width="11.25" style="52" customWidth="1"/>
+    <col min="12797" max="12797" width="11.125" style="52" customWidth="1"/>
     <col min="12798" max="12798" width="9" style="52"/>
-    <col min="12799" max="12799" width="4.265625" style="52" customWidth="1"/>
+    <col min="12799" max="12799" width="4.25" style="52" customWidth="1"/>
     <col min="12800" max="12801" width="9" style="52"/>
-    <col min="12802" max="12802" width="17.3984375" style="52" customWidth="1"/>
-    <col min="12803" max="12803" width="12.46484375" style="52" customWidth="1"/>
-    <col min="12804" max="12804" width="11.265625" style="52" customWidth="1"/>
-    <col min="12805" max="12805" width="11.1328125" style="52" customWidth="1"/>
+    <col min="12802" max="12802" width="17.375" style="52" customWidth="1"/>
+    <col min="12803" max="12803" width="12.5" style="52" customWidth="1"/>
+    <col min="12804" max="12804" width="11.25" style="52" customWidth="1"/>
+    <col min="12805" max="12805" width="11.125" style="52" customWidth="1"/>
     <col min="12806" max="13049" width="9" style="52"/>
-    <col min="13050" max="13050" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13051" max="13051" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13052" max="13052" width="11.265625" style="52" customWidth="1"/>
-    <col min="13053" max="13053" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13050" max="13050" width="17.375" style="52" customWidth="1"/>
+    <col min="13051" max="13051" width="12.5" style="52" customWidth="1"/>
+    <col min="13052" max="13052" width="11.25" style="52" customWidth="1"/>
+    <col min="13053" max="13053" width="11.125" style="52" customWidth="1"/>
     <col min="13054" max="13054" width="9" style="52"/>
-    <col min="13055" max="13055" width="4.265625" style="52" customWidth="1"/>
+    <col min="13055" max="13055" width="4.25" style="52" customWidth="1"/>
     <col min="13056" max="13057" width="9" style="52"/>
-    <col min="13058" max="13058" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13059" max="13059" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13060" max="13060" width="11.265625" style="52" customWidth="1"/>
-    <col min="13061" max="13061" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13058" max="13058" width="17.375" style="52" customWidth="1"/>
+    <col min="13059" max="13059" width="12.5" style="52" customWidth="1"/>
+    <col min="13060" max="13060" width="11.25" style="52" customWidth="1"/>
+    <col min="13061" max="13061" width="11.125" style="52" customWidth="1"/>
     <col min="13062" max="13305" width="9" style="52"/>
-    <col min="13306" max="13306" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13307" max="13307" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13308" max="13308" width="11.265625" style="52" customWidth="1"/>
-    <col min="13309" max="13309" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13306" max="13306" width="17.375" style="52" customWidth="1"/>
+    <col min="13307" max="13307" width="12.5" style="52" customWidth="1"/>
+    <col min="13308" max="13308" width="11.25" style="52" customWidth="1"/>
+    <col min="13309" max="13309" width="11.125" style="52" customWidth="1"/>
     <col min="13310" max="13310" width="9" style="52"/>
-    <col min="13311" max="13311" width="4.265625" style="52" customWidth="1"/>
+    <col min="13311" max="13311" width="4.25" style="52" customWidth="1"/>
     <col min="13312" max="13313" width="9" style="52"/>
-    <col min="13314" max="13314" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13315" max="13315" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13316" max="13316" width="11.265625" style="52" customWidth="1"/>
-    <col min="13317" max="13317" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13314" max="13314" width="17.375" style="52" customWidth="1"/>
+    <col min="13315" max="13315" width="12.5" style="52" customWidth="1"/>
+    <col min="13316" max="13316" width="11.25" style="52" customWidth="1"/>
+    <col min="13317" max="13317" width="11.125" style="52" customWidth="1"/>
     <col min="13318" max="13561" width="9" style="52"/>
-    <col min="13562" max="13562" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13563" max="13563" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13564" max="13564" width="11.265625" style="52" customWidth="1"/>
-    <col min="13565" max="13565" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13562" max="13562" width="17.375" style="52" customWidth="1"/>
+    <col min="13563" max="13563" width="12.5" style="52" customWidth="1"/>
+    <col min="13564" max="13564" width="11.25" style="52" customWidth="1"/>
+    <col min="13565" max="13565" width="11.125" style="52" customWidth="1"/>
     <col min="13566" max="13566" width="9" style="52"/>
-    <col min="13567" max="13567" width="4.265625" style="52" customWidth="1"/>
+    <col min="13567" max="13567" width="4.25" style="52" customWidth="1"/>
     <col min="13568" max="13569" width="9" style="52"/>
-    <col min="13570" max="13570" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13571" max="13571" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13572" max="13572" width="11.265625" style="52" customWidth="1"/>
-    <col min="13573" max="13573" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13570" max="13570" width="17.375" style="52" customWidth="1"/>
+    <col min="13571" max="13571" width="12.5" style="52" customWidth="1"/>
+    <col min="13572" max="13572" width="11.25" style="52" customWidth="1"/>
+    <col min="13573" max="13573" width="11.125" style="52" customWidth="1"/>
     <col min="13574" max="13817" width="9" style="52"/>
-    <col min="13818" max="13818" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13819" max="13819" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13820" max="13820" width="11.265625" style="52" customWidth="1"/>
-    <col min="13821" max="13821" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13818" max="13818" width="17.375" style="52" customWidth="1"/>
+    <col min="13819" max="13819" width="12.5" style="52" customWidth="1"/>
+    <col min="13820" max="13820" width="11.25" style="52" customWidth="1"/>
+    <col min="13821" max="13821" width="11.125" style="52" customWidth="1"/>
     <col min="13822" max="13822" width="9" style="52"/>
-    <col min="13823" max="13823" width="4.265625" style="52" customWidth="1"/>
+    <col min="13823" max="13823" width="4.25" style="52" customWidth="1"/>
     <col min="13824" max="13825" width="9" style="52"/>
-    <col min="13826" max="13826" width="17.3984375" style="52" customWidth="1"/>
-    <col min="13827" max="13827" width="12.46484375" style="52" customWidth="1"/>
-    <col min="13828" max="13828" width="11.265625" style="52" customWidth="1"/>
-    <col min="13829" max="13829" width="11.1328125" style="52" customWidth="1"/>
+    <col min="13826" max="13826" width="17.375" style="52" customWidth="1"/>
+    <col min="13827" max="13827" width="12.5" style="52" customWidth="1"/>
+    <col min="13828" max="13828" width="11.25" style="52" customWidth="1"/>
+    <col min="13829" max="13829" width="11.125" style="52" customWidth="1"/>
     <col min="13830" max="14073" width="9" style="52"/>
-    <col min="14074" max="14074" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14075" max="14075" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14076" max="14076" width="11.265625" style="52" customWidth="1"/>
-    <col min="14077" max="14077" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14074" max="14074" width="17.375" style="52" customWidth="1"/>
+    <col min="14075" max="14075" width="12.5" style="52" customWidth="1"/>
+    <col min="14076" max="14076" width="11.25" style="52" customWidth="1"/>
+    <col min="14077" max="14077" width="11.125" style="52" customWidth="1"/>
     <col min="14078" max="14078" width="9" style="52"/>
-    <col min="14079" max="14079" width="4.265625" style="52" customWidth="1"/>
+    <col min="14079" max="14079" width="4.25" style="52" customWidth="1"/>
     <col min="14080" max="14081" width="9" style="52"/>
-    <col min="14082" max="14082" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14083" max="14083" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14084" max="14084" width="11.265625" style="52" customWidth="1"/>
-    <col min="14085" max="14085" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14082" max="14082" width="17.375" style="52" customWidth="1"/>
+    <col min="14083" max="14083" width="12.5" style="52" customWidth="1"/>
+    <col min="14084" max="14084" width="11.25" style="52" customWidth="1"/>
+    <col min="14085" max="14085" width="11.125" style="52" customWidth="1"/>
     <col min="14086" max="14329" width="9" style="52"/>
-    <col min="14330" max="14330" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14331" max="14331" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14332" max="14332" width="11.265625" style="52" customWidth="1"/>
-    <col min="14333" max="14333" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14330" max="14330" width="17.375" style="52" customWidth="1"/>
+    <col min="14331" max="14331" width="12.5" style="52" customWidth="1"/>
+    <col min="14332" max="14332" width="11.25" style="52" customWidth="1"/>
+    <col min="14333" max="14333" width="11.125" style="52" customWidth="1"/>
     <col min="14334" max="14334" width="9" style="52"/>
-    <col min="14335" max="14335" width="4.265625" style="52" customWidth="1"/>
+    <col min="14335" max="14335" width="4.25" style="52" customWidth="1"/>
     <col min="14336" max="14337" width="9" style="52"/>
-    <col min="14338" max="14338" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14339" max="14339" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14340" max="14340" width="11.265625" style="52" customWidth="1"/>
-    <col min="14341" max="14341" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14338" max="14338" width="17.375" style="52" customWidth="1"/>
+    <col min="14339" max="14339" width="12.5" style="52" customWidth="1"/>
+    <col min="14340" max="14340" width="11.25" style="52" customWidth="1"/>
+    <col min="14341" max="14341" width="11.125" style="52" customWidth="1"/>
     <col min="14342" max="14585" width="9" style="52"/>
-    <col min="14586" max="14586" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14587" max="14587" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14588" max="14588" width="11.265625" style="52" customWidth="1"/>
-    <col min="14589" max="14589" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14586" max="14586" width="17.375" style="52" customWidth="1"/>
+    <col min="14587" max="14587" width="12.5" style="52" customWidth="1"/>
+    <col min="14588" max="14588" width="11.25" style="52" customWidth="1"/>
+    <col min="14589" max="14589" width="11.125" style="52" customWidth="1"/>
     <col min="14590" max="14590" width="9" style="52"/>
-    <col min="14591" max="14591" width="4.265625" style="52" customWidth="1"/>
+    <col min="14591" max="14591" width="4.25" style="52" customWidth="1"/>
     <col min="14592" max="14593" width="9" style="52"/>
-    <col min="14594" max="14594" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14595" max="14595" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14596" max="14596" width="11.265625" style="52" customWidth="1"/>
-    <col min="14597" max="14597" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14594" max="14594" width="17.375" style="52" customWidth="1"/>
+    <col min="14595" max="14595" width="12.5" style="52" customWidth="1"/>
+    <col min="14596" max="14596" width="11.25" style="52" customWidth="1"/>
+    <col min="14597" max="14597" width="11.125" style="52" customWidth="1"/>
     <col min="14598" max="14841" width="9" style="52"/>
-    <col min="14842" max="14842" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14843" max="14843" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14844" max="14844" width="11.265625" style="52" customWidth="1"/>
-    <col min="14845" max="14845" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14842" max="14842" width="17.375" style="52" customWidth="1"/>
+    <col min="14843" max="14843" width="12.5" style="52" customWidth="1"/>
+    <col min="14844" max="14844" width="11.25" style="52" customWidth="1"/>
+    <col min="14845" max="14845" width="11.125" style="52" customWidth="1"/>
     <col min="14846" max="14846" width="9" style="52"/>
-    <col min="14847" max="14847" width="4.265625" style="52" customWidth="1"/>
+    <col min="14847" max="14847" width="4.25" style="52" customWidth="1"/>
     <col min="14848" max="14849" width="9" style="52"/>
-    <col min="14850" max="14850" width="17.3984375" style="52" customWidth="1"/>
-    <col min="14851" max="14851" width="12.46484375" style="52" customWidth="1"/>
-    <col min="14852" max="14852" width="11.265625" style="52" customWidth="1"/>
-    <col min="14853" max="14853" width="11.1328125" style="52" customWidth="1"/>
+    <col min="14850" max="14850" width="17.375" style="52" customWidth="1"/>
+    <col min="14851" max="14851" width="12.5" style="52" customWidth="1"/>
+    <col min="14852" max="14852" width="11.25" style="52" customWidth="1"/>
+    <col min="14853" max="14853" width="11.125" style="52" customWidth="1"/>
     <col min="14854" max="15097" width="9" style="52"/>
-    <col min="15098" max="15098" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15099" max="15099" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15100" max="15100" width="11.265625" style="52" customWidth="1"/>
-    <col min="15101" max="15101" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15098" max="15098" width="17.375" style="52" customWidth="1"/>
+    <col min="15099" max="15099" width="12.5" style="52" customWidth="1"/>
+    <col min="15100" max="15100" width="11.25" style="52" customWidth="1"/>
+    <col min="15101" max="15101" width="11.125" style="52" customWidth="1"/>
     <col min="15102" max="15102" width="9" style="52"/>
-    <col min="15103" max="15103" width="4.265625" style="52" customWidth="1"/>
+    <col min="15103" max="15103" width="4.25" style="52" customWidth="1"/>
     <col min="15104" max="15105" width="9" style="52"/>
-    <col min="15106" max="15106" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15107" max="15107" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15108" max="15108" width="11.265625" style="52" customWidth="1"/>
-    <col min="15109" max="15109" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15106" max="15106" width="17.375" style="52" customWidth="1"/>
+    <col min="15107" max="15107" width="12.5" style="52" customWidth="1"/>
+    <col min="15108" max="15108" width="11.25" style="52" customWidth="1"/>
+    <col min="15109" max="15109" width="11.125" style="52" customWidth="1"/>
     <col min="15110" max="15353" width="9" style="52"/>
-    <col min="15354" max="15354" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15355" max="15355" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15356" max="15356" width="11.265625" style="52" customWidth="1"/>
-    <col min="15357" max="15357" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15354" max="15354" width="17.375" style="52" customWidth="1"/>
+    <col min="15355" max="15355" width="12.5" style="52" customWidth="1"/>
+    <col min="15356" max="15356" width="11.25" style="52" customWidth="1"/>
+    <col min="15357" max="15357" width="11.125" style="52" customWidth="1"/>
     <col min="15358" max="15358" width="9" style="52"/>
-    <col min="15359" max="15359" width="4.265625" style="52" customWidth="1"/>
+    <col min="15359" max="15359" width="4.25" style="52" customWidth="1"/>
     <col min="15360" max="15361" width="9" style="52"/>
-    <col min="15362" max="15362" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15363" max="15363" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15364" max="15364" width="11.265625" style="52" customWidth="1"/>
-    <col min="15365" max="15365" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15362" max="15362" width="17.375" style="52" customWidth="1"/>
+    <col min="15363" max="15363" width="12.5" style="52" customWidth="1"/>
+    <col min="15364" max="15364" width="11.25" style="52" customWidth="1"/>
+    <col min="15365" max="15365" width="11.125" style="52" customWidth="1"/>
     <col min="15366" max="15609" width="9" style="52"/>
-    <col min="15610" max="15610" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15611" max="15611" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15612" max="15612" width="11.265625" style="52" customWidth="1"/>
-    <col min="15613" max="15613" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15610" max="15610" width="17.375" style="52" customWidth="1"/>
+    <col min="15611" max="15611" width="12.5" style="52" customWidth="1"/>
+    <col min="15612" max="15612" width="11.25" style="52" customWidth="1"/>
+    <col min="15613" max="15613" width="11.125" style="52" customWidth="1"/>
     <col min="15614" max="15614" width="9" style="52"/>
-    <col min="15615" max="15615" width="4.265625" style="52" customWidth="1"/>
+    <col min="15615" max="15615" width="4.25" style="52" customWidth="1"/>
     <col min="15616" max="15617" width="9" style="52"/>
-    <col min="15618" max="15618" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15619" max="15619" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15620" max="15620" width="11.265625" style="52" customWidth="1"/>
-    <col min="15621" max="15621" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15618" max="15618" width="17.375" style="52" customWidth="1"/>
+    <col min="15619" max="15619" width="12.5" style="52" customWidth="1"/>
+    <col min="15620" max="15620" width="11.25" style="52" customWidth="1"/>
+    <col min="15621" max="15621" width="11.125" style="52" customWidth="1"/>
     <col min="15622" max="15865" width="9" style="52"/>
-    <col min="15866" max="15866" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15867" max="15867" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15868" max="15868" width="11.265625" style="52" customWidth="1"/>
-    <col min="15869" max="15869" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15866" max="15866" width="17.375" style="52" customWidth="1"/>
+    <col min="15867" max="15867" width="12.5" style="52" customWidth="1"/>
+    <col min="15868" max="15868" width="11.25" style="52" customWidth="1"/>
+    <col min="15869" max="15869" width="11.125" style="52" customWidth="1"/>
     <col min="15870" max="15870" width="9" style="52"/>
-    <col min="15871" max="15871" width="4.265625" style="52" customWidth="1"/>
+    <col min="15871" max="15871" width="4.25" style="52" customWidth="1"/>
     <col min="15872" max="15873" width="9" style="52"/>
-    <col min="15874" max="15874" width="17.3984375" style="52" customWidth="1"/>
-    <col min="15875" max="15875" width="12.46484375" style="52" customWidth="1"/>
-    <col min="15876" max="15876" width="11.265625" style="52" customWidth="1"/>
-    <col min="15877" max="15877" width="11.1328125" style="52" customWidth="1"/>
+    <col min="15874" max="15874" width="17.375" style="52" customWidth="1"/>
+    <col min="15875" max="15875" width="12.5" style="52" customWidth="1"/>
+    <col min="15876" max="15876" width="11.25" style="52" customWidth="1"/>
+    <col min="15877" max="15877" width="11.125" style="52" customWidth="1"/>
     <col min="15878" max="16121" width="9" style="52"/>
-    <col min="16122" max="16122" width="17.3984375" style="52" customWidth="1"/>
-    <col min="16123" max="16123" width="12.46484375" style="52" customWidth="1"/>
-    <col min="16124" max="16124" width="11.265625" style="52" customWidth="1"/>
-    <col min="16125" max="16125" width="11.1328125" style="52" customWidth="1"/>
+    <col min="16122" max="16122" width="17.375" style="52" customWidth="1"/>
+    <col min="16123" max="16123" width="12.5" style="52" customWidth="1"/>
+    <col min="16124" max="16124" width="11.25" style="52" customWidth="1"/>
+    <col min="16125" max="16125" width="11.125" style="52" customWidth="1"/>
     <col min="16126" max="16126" width="9" style="52"/>
-    <col min="16127" max="16127" width="4.265625" style="52" customWidth="1"/>
+    <col min="16127" max="16127" width="4.25" style="52" customWidth="1"/>
     <col min="16128" max="16129" width="9" style="52"/>
-    <col min="16130" max="16130" width="17.3984375" style="52" customWidth="1"/>
-    <col min="16131" max="16131" width="12.46484375" style="52" customWidth="1"/>
-    <col min="16132" max="16132" width="11.265625" style="52" customWidth="1"/>
-    <col min="16133" max="16133" width="11.1328125" style="52" customWidth="1"/>
+    <col min="16130" max="16130" width="17.375" style="52" customWidth="1"/>
+    <col min="16131" max="16131" width="12.5" style="52" customWidth="1"/>
+    <col min="16132" max="16132" width="11.25" style="52" customWidth="1"/>
+    <col min="16133" max="16133" width="11.125" style="52" customWidth="1"/>
     <col min="16134" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="66"/>
-    </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="66"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="56"/>
@@ -4099,7 +4099,7 @@
       <c r="G3" s="59"/>
       <c r="H3" s="60"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56"/>
@@ -4109,39 +4109,39 @@
       <c r="G4" s="59"/>
       <c r="H4" s="60"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G1:G2"/>
@@ -4168,14 +4168,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="9" width="11.59765625" customWidth="1"/>
+    <col min="1" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -4216,22 +4216,22 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="31" customWidth="1"/>
-    <col min="3" max="5" width="6.59765625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="32" customWidth="1"/>
-    <col min="8" max="9" width="8.59765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="31" customWidth="1"/>
+    <col min="3" max="5" width="6.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="31" customWidth="1"/>
     <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>11</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="72" t="s">
         <v>14</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
         <v>17</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="I4" s="74"/>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74"/>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -4310,7 +4310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -4321,7 +4321,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="49"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
@@ -4332,7 +4332,7 @@
       <c r="H7" s="42"/>
       <c r="I7" s="49"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
@@ -4343,7 +4343,7 @@
       <c r="H8" s="42"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
@@ -4354,7 +4354,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="49"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -4365,7 +4365,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="49"/>
     </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
@@ -4376,7 +4376,7 @@
       <c r="H11" s="42"/>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -4387,7 +4387,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -4398,7 +4398,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="49"/>
     </row>
-    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -4409,7 +4409,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="49"/>
     </row>
-    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
@@ -4420,7 +4420,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -4431,7 +4431,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
@@ -4442,7 +4442,7 @@
       <c r="H17" s="42"/>
       <c r="I17" s="49"/>
     </row>
-    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -4453,7 +4453,7 @@
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
     </row>
-    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
@@ -4464,7 +4464,7 @@
       <c r="H19" s="42"/>
       <c r="I19" s="49"/>
     </row>
-    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="38"/>
@@ -4475,7 +4475,7 @@
       <c r="H20" s="42"/>
       <c r="I20" s="49"/>
     </row>
-    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38"/>
@@ -4486,7 +4486,7 @@
       <c r="H21" s="42"/>
       <c r="I21" s="49"/>
     </row>
-    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
@@ -4497,7 +4497,7 @@
       <c r="H22" s="42"/>
       <c r="I22" s="49"/>
     </row>
-    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
@@ -4508,7 +4508,7 @@
       <c r="H23" s="42"/>
       <c r="I23" s="49"/>
     </row>
-    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
@@ -4519,7 +4519,7 @@
       <c r="H24" s="42"/>
       <c r="I24" s="49"/>
     </row>
-    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
@@ -4530,7 +4530,7 @@
       <c r="H25" s="42"/>
       <c r="I25" s="49"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
@@ -4541,7 +4541,7 @@
       <c r="H26" s="42"/>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
@@ -4552,7 +4552,7 @@
       <c r="H27" s="42"/>
       <c r="I27" s="49"/>
     </row>
-    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45"/>
@@ -4580,12 +4580,11 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.39370078740157499" footer="0.59055118110236204"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+  <pageMargins left="0.86597222222222203" right="0.59027777777777801" top="0.78680555555555598" bottom="0.62986111111111098" header="0.35416666666666702" footer="0.39305555555555599"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
+第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4595,721 +4594,721 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="6.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="12.46484375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.46484375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="17" width="10.6640625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="4" customWidth="1"/>
     <col min="18" max="251" width="9" style="2"/>
-    <col min="252" max="252" width="9.1328125" style="2" customWidth="1"/>
-    <col min="253" max="253" width="5.46484375" style="2" customWidth="1"/>
-    <col min="254" max="257" width="6.19921875" style="2" customWidth="1"/>
-    <col min="258" max="258" width="5.46484375" style="2" customWidth="1"/>
-    <col min="259" max="259" width="9.19921875" style="2" customWidth="1"/>
-    <col min="260" max="260" width="5.46484375" style="2" customWidth="1"/>
-    <col min="261" max="264" width="6.19921875" style="2" customWidth="1"/>
-    <col min="265" max="265" width="5.46484375" style="2" customWidth="1"/>
+    <col min="252" max="252" width="9.125" style="2" customWidth="1"/>
+    <col min="253" max="253" width="5.5" style="2" customWidth="1"/>
+    <col min="254" max="257" width="6.125" style="2" customWidth="1"/>
+    <col min="258" max="258" width="5.5" style="2" customWidth="1"/>
+    <col min="259" max="259" width="9.125" style="2" customWidth="1"/>
+    <col min="260" max="260" width="5.5" style="2" customWidth="1"/>
+    <col min="261" max="264" width="6.125" style="2" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="2" customWidth="1"/>
     <col min="266" max="266" width="9" style="2"/>
-    <col min="267" max="267" width="13.86328125" style="2" customWidth="1"/>
+    <col min="267" max="267" width="13.875" style="2" customWidth="1"/>
     <col min="268" max="507" width="9" style="2"/>
-    <col min="508" max="508" width="9.1328125" style="2" customWidth="1"/>
-    <col min="509" max="509" width="5.46484375" style="2" customWidth="1"/>
-    <col min="510" max="513" width="6.19921875" style="2" customWidth="1"/>
-    <col min="514" max="514" width="5.46484375" style="2" customWidth="1"/>
-    <col min="515" max="515" width="9.19921875" style="2" customWidth="1"/>
-    <col min="516" max="516" width="5.46484375" style="2" customWidth="1"/>
-    <col min="517" max="520" width="6.19921875" style="2" customWidth="1"/>
-    <col min="521" max="521" width="5.46484375" style="2" customWidth="1"/>
+    <col min="508" max="508" width="9.125" style="2" customWidth="1"/>
+    <col min="509" max="509" width="5.5" style="2" customWidth="1"/>
+    <col min="510" max="513" width="6.125" style="2" customWidth="1"/>
+    <col min="514" max="514" width="5.5" style="2" customWidth="1"/>
+    <col min="515" max="515" width="9.125" style="2" customWidth="1"/>
+    <col min="516" max="516" width="5.5" style="2" customWidth="1"/>
+    <col min="517" max="520" width="6.125" style="2" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="2" customWidth="1"/>
     <col min="522" max="522" width="9" style="2"/>
-    <col min="523" max="523" width="13.86328125" style="2" customWidth="1"/>
+    <col min="523" max="523" width="13.875" style="2" customWidth="1"/>
     <col min="524" max="763" width="9" style="2"/>
-    <col min="764" max="764" width="9.1328125" style="2" customWidth="1"/>
-    <col min="765" max="765" width="5.46484375" style="2" customWidth="1"/>
-    <col min="766" max="769" width="6.19921875" style="2" customWidth="1"/>
-    <col min="770" max="770" width="5.46484375" style="2" customWidth="1"/>
-    <col min="771" max="771" width="9.19921875" style="2" customWidth="1"/>
-    <col min="772" max="772" width="5.46484375" style="2" customWidth="1"/>
-    <col min="773" max="776" width="6.19921875" style="2" customWidth="1"/>
-    <col min="777" max="777" width="5.46484375" style="2" customWidth="1"/>
+    <col min="764" max="764" width="9.125" style="2" customWidth="1"/>
+    <col min="765" max="765" width="5.5" style="2" customWidth="1"/>
+    <col min="766" max="769" width="6.125" style="2" customWidth="1"/>
+    <col min="770" max="770" width="5.5" style="2" customWidth="1"/>
+    <col min="771" max="771" width="9.125" style="2" customWidth="1"/>
+    <col min="772" max="772" width="5.5" style="2" customWidth="1"/>
+    <col min="773" max="776" width="6.125" style="2" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="2" customWidth="1"/>
     <col min="778" max="778" width="9" style="2"/>
-    <col min="779" max="779" width="13.86328125" style="2" customWidth="1"/>
+    <col min="779" max="779" width="13.875" style="2" customWidth="1"/>
     <col min="780" max="1019" width="9" style="2"/>
-    <col min="1020" max="1020" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1022" max="1025" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1026" max="1026" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1027" max="1027" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1028" max="1028" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1029" max="1032" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1033" max="1033" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1020" max="1020" width="9.125" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="5.5" style="2" customWidth="1"/>
+    <col min="1022" max="1025" width="6.125" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="5.5" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="9.125" style="2" customWidth="1"/>
+    <col min="1028" max="1028" width="5.5" style="2" customWidth="1"/>
+    <col min="1029" max="1032" width="6.125" style="2" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="2" customWidth="1"/>
     <col min="1034" max="1034" width="9" style="2"/>
-    <col min="1035" max="1035" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1035" max="1035" width="13.875" style="2" customWidth="1"/>
     <col min="1036" max="1275" width="9" style="2"/>
-    <col min="1276" max="1276" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1278" max="1281" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1282" max="1282" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1283" max="1283" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1284" max="1284" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1285" max="1288" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1289" max="1289" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1276" max="1276" width="9.125" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="5.5" style="2" customWidth="1"/>
+    <col min="1278" max="1281" width="6.125" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="5.5" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="9.125" style="2" customWidth="1"/>
+    <col min="1284" max="1284" width="5.5" style="2" customWidth="1"/>
+    <col min="1285" max="1288" width="6.125" style="2" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="2" customWidth="1"/>
     <col min="1290" max="1290" width="9" style="2"/>
-    <col min="1291" max="1291" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1291" max="1291" width="13.875" style="2" customWidth="1"/>
     <col min="1292" max="1531" width="9" style="2"/>
-    <col min="1532" max="1532" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1534" max="1537" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1538" max="1538" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1539" max="1539" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1540" max="1540" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1541" max="1544" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1545" max="1545" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1532" max="1532" width="9.125" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="5.5" style="2" customWidth="1"/>
+    <col min="1534" max="1537" width="6.125" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="5.5" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="9.125" style="2" customWidth="1"/>
+    <col min="1540" max="1540" width="5.5" style="2" customWidth="1"/>
+    <col min="1541" max="1544" width="6.125" style="2" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="2" customWidth="1"/>
     <col min="1546" max="1546" width="9" style="2"/>
-    <col min="1547" max="1547" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1547" max="1547" width="13.875" style="2" customWidth="1"/>
     <col min="1548" max="1787" width="9" style="2"/>
-    <col min="1788" max="1788" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1790" max="1793" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1794" max="1794" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1795" max="1795" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1796" max="1796" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1797" max="1800" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1801" max="1801" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1788" max="1788" width="9.125" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="5.5" style="2" customWidth="1"/>
+    <col min="1790" max="1793" width="6.125" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="5.5" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="9.125" style="2" customWidth="1"/>
+    <col min="1796" max="1796" width="5.5" style="2" customWidth="1"/>
+    <col min="1797" max="1800" width="6.125" style="2" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="2" customWidth="1"/>
     <col min="1802" max="1802" width="9" style="2"/>
-    <col min="1803" max="1803" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1803" max="1803" width="13.875" style="2" customWidth="1"/>
     <col min="1804" max="2043" width="9" style="2"/>
-    <col min="2044" max="2044" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2046" max="2049" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2050" max="2050" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2051" max="2051" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2052" max="2052" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2053" max="2056" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2057" max="2057" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2044" max="2044" width="9.125" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="5.5" style="2" customWidth="1"/>
+    <col min="2046" max="2049" width="6.125" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="5.5" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="9.125" style="2" customWidth="1"/>
+    <col min="2052" max="2052" width="5.5" style="2" customWidth="1"/>
+    <col min="2053" max="2056" width="6.125" style="2" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="2" customWidth="1"/>
     <col min="2058" max="2058" width="9" style="2"/>
-    <col min="2059" max="2059" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2059" max="2059" width="13.875" style="2" customWidth="1"/>
     <col min="2060" max="2299" width="9" style="2"/>
-    <col min="2300" max="2300" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2302" max="2305" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2306" max="2306" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2307" max="2307" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2308" max="2308" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2309" max="2312" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2313" max="2313" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2300" max="2300" width="9.125" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="5.5" style="2" customWidth="1"/>
+    <col min="2302" max="2305" width="6.125" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="5.5" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="9.125" style="2" customWidth="1"/>
+    <col min="2308" max="2308" width="5.5" style="2" customWidth="1"/>
+    <col min="2309" max="2312" width="6.125" style="2" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="2" customWidth="1"/>
     <col min="2314" max="2314" width="9" style="2"/>
-    <col min="2315" max="2315" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2315" max="2315" width="13.875" style="2" customWidth="1"/>
     <col min="2316" max="2555" width="9" style="2"/>
-    <col min="2556" max="2556" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2558" max="2561" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2562" max="2562" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2563" max="2563" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2564" max="2564" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2565" max="2568" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2569" max="2569" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2556" max="2556" width="9.125" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="5.5" style="2" customWidth="1"/>
+    <col min="2558" max="2561" width="6.125" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="5.5" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="9.125" style="2" customWidth="1"/>
+    <col min="2564" max="2564" width="5.5" style="2" customWidth="1"/>
+    <col min="2565" max="2568" width="6.125" style="2" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="2" customWidth="1"/>
     <col min="2570" max="2570" width="9" style="2"/>
-    <col min="2571" max="2571" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2571" max="2571" width="13.875" style="2" customWidth="1"/>
     <col min="2572" max="2811" width="9" style="2"/>
-    <col min="2812" max="2812" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2814" max="2817" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2818" max="2818" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2819" max="2819" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2820" max="2820" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2821" max="2824" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2825" max="2825" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2812" max="2812" width="9.125" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="5.5" style="2" customWidth="1"/>
+    <col min="2814" max="2817" width="6.125" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="5.5" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="9.125" style="2" customWidth="1"/>
+    <col min="2820" max="2820" width="5.5" style="2" customWidth="1"/>
+    <col min="2821" max="2824" width="6.125" style="2" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="2" customWidth="1"/>
     <col min="2826" max="2826" width="9" style="2"/>
-    <col min="2827" max="2827" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2827" max="2827" width="13.875" style="2" customWidth="1"/>
     <col min="2828" max="3067" width="9" style="2"/>
-    <col min="3068" max="3068" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3070" max="3073" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3074" max="3074" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3075" max="3075" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3076" max="3076" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3077" max="3080" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3081" max="3081" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3068" max="3068" width="9.125" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="5.5" style="2" customWidth="1"/>
+    <col min="3070" max="3073" width="6.125" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="5.5" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="9.125" style="2" customWidth="1"/>
+    <col min="3076" max="3076" width="5.5" style="2" customWidth="1"/>
+    <col min="3077" max="3080" width="6.125" style="2" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="2" customWidth="1"/>
     <col min="3082" max="3082" width="9" style="2"/>
-    <col min="3083" max="3083" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3083" max="3083" width="13.875" style="2" customWidth="1"/>
     <col min="3084" max="3323" width="9" style="2"/>
-    <col min="3324" max="3324" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3326" max="3329" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3330" max="3330" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3331" max="3331" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3332" max="3332" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3333" max="3336" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3337" max="3337" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3324" max="3324" width="9.125" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="5.5" style="2" customWidth="1"/>
+    <col min="3326" max="3329" width="6.125" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="5.5" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="9.125" style="2" customWidth="1"/>
+    <col min="3332" max="3332" width="5.5" style="2" customWidth="1"/>
+    <col min="3333" max="3336" width="6.125" style="2" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="2" customWidth="1"/>
     <col min="3338" max="3338" width="9" style="2"/>
-    <col min="3339" max="3339" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3339" max="3339" width="13.875" style="2" customWidth="1"/>
     <col min="3340" max="3579" width="9" style="2"/>
-    <col min="3580" max="3580" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3582" max="3585" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3586" max="3586" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3587" max="3587" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3588" max="3588" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3589" max="3592" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3593" max="3593" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3580" max="3580" width="9.125" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="5.5" style="2" customWidth="1"/>
+    <col min="3582" max="3585" width="6.125" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="5.5" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="9.125" style="2" customWidth="1"/>
+    <col min="3588" max="3588" width="5.5" style="2" customWidth="1"/>
+    <col min="3589" max="3592" width="6.125" style="2" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="2" customWidth="1"/>
     <col min="3594" max="3594" width="9" style="2"/>
-    <col min="3595" max="3595" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3595" max="3595" width="13.875" style="2" customWidth="1"/>
     <col min="3596" max="3835" width="9" style="2"/>
-    <col min="3836" max="3836" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3838" max="3841" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3842" max="3842" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3843" max="3843" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3844" max="3844" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3845" max="3848" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3849" max="3849" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3836" max="3836" width="9.125" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="5.5" style="2" customWidth="1"/>
+    <col min="3838" max="3841" width="6.125" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="5.5" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="9.125" style="2" customWidth="1"/>
+    <col min="3844" max="3844" width="5.5" style="2" customWidth="1"/>
+    <col min="3845" max="3848" width="6.125" style="2" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="2" customWidth="1"/>
     <col min="3850" max="3850" width="9" style="2"/>
-    <col min="3851" max="3851" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3851" max="3851" width="13.875" style="2" customWidth="1"/>
     <col min="3852" max="4091" width="9" style="2"/>
-    <col min="4092" max="4092" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4094" max="4097" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4098" max="4098" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4099" max="4099" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4100" max="4100" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4101" max="4104" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4105" max="4105" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4092" max="4092" width="9.125" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="5.5" style="2" customWidth="1"/>
+    <col min="4094" max="4097" width="6.125" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="5.5" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="9.125" style="2" customWidth="1"/>
+    <col min="4100" max="4100" width="5.5" style="2" customWidth="1"/>
+    <col min="4101" max="4104" width="6.125" style="2" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="2" customWidth="1"/>
     <col min="4106" max="4106" width="9" style="2"/>
-    <col min="4107" max="4107" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4107" max="4107" width="13.875" style="2" customWidth="1"/>
     <col min="4108" max="4347" width="9" style="2"/>
-    <col min="4348" max="4348" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4350" max="4353" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4354" max="4354" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4355" max="4355" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4356" max="4356" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4357" max="4360" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4361" max="4361" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4348" max="4348" width="9.125" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="5.5" style="2" customWidth="1"/>
+    <col min="4350" max="4353" width="6.125" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="5.5" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="9.125" style="2" customWidth="1"/>
+    <col min="4356" max="4356" width="5.5" style="2" customWidth="1"/>
+    <col min="4357" max="4360" width="6.125" style="2" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="2" customWidth="1"/>
     <col min="4362" max="4362" width="9" style="2"/>
-    <col min="4363" max="4363" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4363" max="4363" width="13.875" style="2" customWidth="1"/>
     <col min="4364" max="4603" width="9" style="2"/>
-    <col min="4604" max="4604" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4606" max="4609" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4610" max="4610" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4611" max="4611" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4612" max="4612" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4613" max="4616" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4617" max="4617" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4604" max="4604" width="9.125" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="5.5" style="2" customWidth="1"/>
+    <col min="4606" max="4609" width="6.125" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="5.5" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="9.125" style="2" customWidth="1"/>
+    <col min="4612" max="4612" width="5.5" style="2" customWidth="1"/>
+    <col min="4613" max="4616" width="6.125" style="2" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="2" customWidth="1"/>
     <col min="4618" max="4618" width="9" style="2"/>
-    <col min="4619" max="4619" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4619" max="4619" width="13.875" style="2" customWidth="1"/>
     <col min="4620" max="4859" width="9" style="2"/>
-    <col min="4860" max="4860" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4862" max="4865" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4866" max="4866" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4867" max="4867" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4868" max="4868" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4869" max="4872" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4873" max="4873" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4860" max="4860" width="9.125" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="5.5" style="2" customWidth="1"/>
+    <col min="4862" max="4865" width="6.125" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="5.5" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="9.125" style="2" customWidth="1"/>
+    <col min="4868" max="4868" width="5.5" style="2" customWidth="1"/>
+    <col min="4869" max="4872" width="6.125" style="2" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="2" customWidth="1"/>
     <col min="4874" max="4874" width="9" style="2"/>
-    <col min="4875" max="4875" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4875" max="4875" width="13.875" style="2" customWidth="1"/>
     <col min="4876" max="5115" width="9" style="2"/>
-    <col min="5116" max="5116" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5118" max="5121" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5122" max="5122" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5123" max="5123" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5124" max="5124" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5125" max="5128" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5129" max="5129" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5116" max="5116" width="9.125" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="5.5" style="2" customWidth="1"/>
+    <col min="5118" max="5121" width="6.125" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="5.5" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="9.125" style="2" customWidth="1"/>
+    <col min="5124" max="5124" width="5.5" style="2" customWidth="1"/>
+    <col min="5125" max="5128" width="6.125" style="2" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="2" customWidth="1"/>
     <col min="5130" max="5130" width="9" style="2"/>
-    <col min="5131" max="5131" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5131" max="5131" width="13.875" style="2" customWidth="1"/>
     <col min="5132" max="5371" width="9" style="2"/>
-    <col min="5372" max="5372" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5374" max="5377" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5378" max="5378" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5379" max="5379" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5380" max="5380" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5381" max="5384" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5385" max="5385" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5372" max="5372" width="9.125" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="5.5" style="2" customWidth="1"/>
+    <col min="5374" max="5377" width="6.125" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="5.5" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="9.125" style="2" customWidth="1"/>
+    <col min="5380" max="5380" width="5.5" style="2" customWidth="1"/>
+    <col min="5381" max="5384" width="6.125" style="2" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="2" customWidth="1"/>
     <col min="5386" max="5386" width="9" style="2"/>
-    <col min="5387" max="5387" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5387" max="5387" width="13.875" style="2" customWidth="1"/>
     <col min="5388" max="5627" width="9" style="2"/>
-    <col min="5628" max="5628" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5630" max="5633" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5634" max="5634" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5635" max="5635" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5636" max="5636" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5637" max="5640" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5641" max="5641" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5628" max="5628" width="9.125" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="5.5" style="2" customWidth="1"/>
+    <col min="5630" max="5633" width="6.125" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="5.5" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="9.125" style="2" customWidth="1"/>
+    <col min="5636" max="5636" width="5.5" style="2" customWidth="1"/>
+    <col min="5637" max="5640" width="6.125" style="2" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="2" customWidth="1"/>
     <col min="5642" max="5642" width="9" style="2"/>
-    <col min="5643" max="5643" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5643" max="5643" width="13.875" style="2" customWidth="1"/>
     <col min="5644" max="5883" width="9" style="2"/>
-    <col min="5884" max="5884" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5886" max="5889" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5890" max="5890" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5891" max="5891" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5892" max="5892" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5893" max="5896" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5897" max="5897" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5884" max="5884" width="9.125" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="5.5" style="2" customWidth="1"/>
+    <col min="5886" max="5889" width="6.125" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="5.5" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="9.125" style="2" customWidth="1"/>
+    <col min="5892" max="5892" width="5.5" style="2" customWidth="1"/>
+    <col min="5893" max="5896" width="6.125" style="2" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="2" customWidth="1"/>
     <col min="5898" max="5898" width="9" style="2"/>
-    <col min="5899" max="5899" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5899" max="5899" width="13.875" style="2" customWidth="1"/>
     <col min="5900" max="6139" width="9" style="2"/>
-    <col min="6140" max="6140" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6142" max="6145" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6146" max="6146" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6147" max="6147" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6148" max="6148" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6149" max="6152" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6153" max="6153" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6140" max="6140" width="9.125" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="5.5" style="2" customWidth="1"/>
+    <col min="6142" max="6145" width="6.125" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="5.5" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="9.125" style="2" customWidth="1"/>
+    <col min="6148" max="6148" width="5.5" style="2" customWidth="1"/>
+    <col min="6149" max="6152" width="6.125" style="2" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="2" customWidth="1"/>
     <col min="6154" max="6154" width="9" style="2"/>
-    <col min="6155" max="6155" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6155" max="6155" width="13.875" style="2" customWidth="1"/>
     <col min="6156" max="6395" width="9" style="2"/>
-    <col min="6396" max="6396" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6398" max="6401" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6402" max="6402" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6403" max="6403" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6404" max="6404" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6405" max="6408" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6409" max="6409" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6396" max="6396" width="9.125" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="5.5" style="2" customWidth="1"/>
+    <col min="6398" max="6401" width="6.125" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="5.5" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="9.125" style="2" customWidth="1"/>
+    <col min="6404" max="6404" width="5.5" style="2" customWidth="1"/>
+    <col min="6405" max="6408" width="6.125" style="2" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="2" customWidth="1"/>
     <col min="6410" max="6410" width="9" style="2"/>
-    <col min="6411" max="6411" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6411" max="6411" width="13.875" style="2" customWidth="1"/>
     <col min="6412" max="6651" width="9" style="2"/>
-    <col min="6652" max="6652" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6654" max="6657" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6658" max="6658" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6659" max="6659" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6660" max="6660" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6661" max="6664" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6665" max="6665" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6652" max="6652" width="9.125" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="5.5" style="2" customWidth="1"/>
+    <col min="6654" max="6657" width="6.125" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="5.5" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="9.125" style="2" customWidth="1"/>
+    <col min="6660" max="6660" width="5.5" style="2" customWidth="1"/>
+    <col min="6661" max="6664" width="6.125" style="2" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="2" customWidth="1"/>
     <col min="6666" max="6666" width="9" style="2"/>
-    <col min="6667" max="6667" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6667" max="6667" width="13.875" style="2" customWidth="1"/>
     <col min="6668" max="6907" width="9" style="2"/>
-    <col min="6908" max="6908" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6910" max="6913" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6914" max="6914" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6915" max="6915" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6916" max="6916" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6917" max="6920" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6921" max="6921" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6908" max="6908" width="9.125" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="5.5" style="2" customWidth="1"/>
+    <col min="6910" max="6913" width="6.125" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="5.5" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="9.125" style="2" customWidth="1"/>
+    <col min="6916" max="6916" width="5.5" style="2" customWidth="1"/>
+    <col min="6917" max="6920" width="6.125" style="2" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="2" customWidth="1"/>
     <col min="6922" max="6922" width="9" style="2"/>
-    <col min="6923" max="6923" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6923" max="6923" width="13.875" style="2" customWidth="1"/>
     <col min="6924" max="7163" width="9" style="2"/>
-    <col min="7164" max="7164" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7166" max="7169" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7170" max="7170" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7171" max="7171" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7172" max="7172" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7173" max="7176" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7177" max="7177" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7164" max="7164" width="9.125" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="5.5" style="2" customWidth="1"/>
+    <col min="7166" max="7169" width="6.125" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="5.5" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="9.125" style="2" customWidth="1"/>
+    <col min="7172" max="7172" width="5.5" style="2" customWidth="1"/>
+    <col min="7173" max="7176" width="6.125" style="2" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="2" customWidth="1"/>
     <col min="7178" max="7178" width="9" style="2"/>
-    <col min="7179" max="7179" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7179" max="7179" width="13.875" style="2" customWidth="1"/>
     <col min="7180" max="7419" width="9" style="2"/>
-    <col min="7420" max="7420" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7422" max="7425" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7426" max="7426" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7427" max="7427" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7428" max="7428" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7429" max="7432" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7433" max="7433" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7420" max="7420" width="9.125" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="5.5" style="2" customWidth="1"/>
+    <col min="7422" max="7425" width="6.125" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="5.5" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="9.125" style="2" customWidth="1"/>
+    <col min="7428" max="7428" width="5.5" style="2" customWidth="1"/>
+    <col min="7429" max="7432" width="6.125" style="2" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="2" customWidth="1"/>
     <col min="7434" max="7434" width="9" style="2"/>
-    <col min="7435" max="7435" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7435" max="7435" width="13.875" style="2" customWidth="1"/>
     <col min="7436" max="7675" width="9" style="2"/>
-    <col min="7676" max="7676" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7678" max="7681" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7682" max="7682" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7683" max="7683" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7684" max="7684" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7685" max="7688" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7689" max="7689" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7676" max="7676" width="9.125" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="5.5" style="2" customWidth="1"/>
+    <col min="7678" max="7681" width="6.125" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="5.5" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="9.125" style="2" customWidth="1"/>
+    <col min="7684" max="7684" width="5.5" style="2" customWidth="1"/>
+    <col min="7685" max="7688" width="6.125" style="2" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="2" customWidth="1"/>
     <col min="7690" max="7690" width="9" style="2"/>
-    <col min="7691" max="7691" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7691" max="7691" width="13.875" style="2" customWidth="1"/>
     <col min="7692" max="7931" width="9" style="2"/>
-    <col min="7932" max="7932" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7934" max="7937" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7938" max="7938" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7939" max="7939" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7940" max="7940" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7941" max="7944" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7945" max="7945" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7932" max="7932" width="9.125" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="5.5" style="2" customWidth="1"/>
+    <col min="7934" max="7937" width="6.125" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="5.5" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="9.125" style="2" customWidth="1"/>
+    <col min="7940" max="7940" width="5.5" style="2" customWidth="1"/>
+    <col min="7941" max="7944" width="6.125" style="2" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="2" customWidth="1"/>
     <col min="7946" max="7946" width="9" style="2"/>
-    <col min="7947" max="7947" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7947" max="7947" width="13.875" style="2" customWidth="1"/>
     <col min="7948" max="8187" width="9" style="2"/>
-    <col min="8188" max="8188" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8190" max="8193" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8194" max="8194" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8195" max="8195" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8196" max="8196" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8197" max="8200" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8201" max="8201" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8188" max="8188" width="9.125" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="5.5" style="2" customWidth="1"/>
+    <col min="8190" max="8193" width="6.125" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="5.5" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="9.125" style="2" customWidth="1"/>
+    <col min="8196" max="8196" width="5.5" style="2" customWidth="1"/>
+    <col min="8197" max="8200" width="6.125" style="2" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="2" customWidth="1"/>
     <col min="8202" max="8202" width="9" style="2"/>
-    <col min="8203" max="8203" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8203" max="8203" width="13.875" style="2" customWidth="1"/>
     <col min="8204" max="8443" width="9" style="2"/>
-    <col min="8444" max="8444" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8446" max="8449" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8450" max="8450" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8451" max="8451" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8452" max="8452" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8453" max="8456" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8457" max="8457" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8444" max="8444" width="9.125" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="5.5" style="2" customWidth="1"/>
+    <col min="8446" max="8449" width="6.125" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="5.5" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="9.125" style="2" customWidth="1"/>
+    <col min="8452" max="8452" width="5.5" style="2" customWidth="1"/>
+    <col min="8453" max="8456" width="6.125" style="2" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="2" customWidth="1"/>
     <col min="8458" max="8458" width="9" style="2"/>
-    <col min="8459" max="8459" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8459" max="8459" width="13.875" style="2" customWidth="1"/>
     <col min="8460" max="8699" width="9" style="2"/>
-    <col min="8700" max="8700" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8702" max="8705" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8706" max="8706" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8707" max="8707" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8708" max="8708" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8709" max="8712" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8713" max="8713" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8700" max="8700" width="9.125" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="5.5" style="2" customWidth="1"/>
+    <col min="8702" max="8705" width="6.125" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="5.5" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="9.125" style="2" customWidth="1"/>
+    <col min="8708" max="8708" width="5.5" style="2" customWidth="1"/>
+    <col min="8709" max="8712" width="6.125" style="2" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="2" customWidth="1"/>
     <col min="8714" max="8714" width="9" style="2"/>
-    <col min="8715" max="8715" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8715" max="8715" width="13.875" style="2" customWidth="1"/>
     <col min="8716" max="8955" width="9" style="2"/>
-    <col min="8956" max="8956" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8958" max="8961" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8962" max="8962" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8963" max="8963" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8964" max="8964" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8965" max="8968" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8969" max="8969" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8956" max="8956" width="9.125" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="5.5" style="2" customWidth="1"/>
+    <col min="8958" max="8961" width="6.125" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="5.5" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="9.125" style="2" customWidth="1"/>
+    <col min="8964" max="8964" width="5.5" style="2" customWidth="1"/>
+    <col min="8965" max="8968" width="6.125" style="2" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="2" customWidth="1"/>
     <col min="8970" max="8970" width="9" style="2"/>
-    <col min="8971" max="8971" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8971" max="8971" width="13.875" style="2" customWidth="1"/>
     <col min="8972" max="9211" width="9" style="2"/>
-    <col min="9212" max="9212" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9214" max="9217" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9218" max="9218" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9219" max="9219" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9220" max="9220" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9221" max="9224" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9225" max="9225" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9212" max="9212" width="9.125" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="5.5" style="2" customWidth="1"/>
+    <col min="9214" max="9217" width="6.125" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="5.5" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="9.125" style="2" customWidth="1"/>
+    <col min="9220" max="9220" width="5.5" style="2" customWidth="1"/>
+    <col min="9221" max="9224" width="6.125" style="2" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="2" customWidth="1"/>
     <col min="9226" max="9226" width="9" style="2"/>
-    <col min="9227" max="9227" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9227" max="9227" width="13.875" style="2" customWidth="1"/>
     <col min="9228" max="9467" width="9" style="2"/>
-    <col min="9468" max="9468" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9470" max="9473" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9474" max="9474" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9475" max="9475" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9476" max="9476" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9477" max="9480" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9481" max="9481" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9468" max="9468" width="9.125" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="5.5" style="2" customWidth="1"/>
+    <col min="9470" max="9473" width="6.125" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="5.5" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="9.125" style="2" customWidth="1"/>
+    <col min="9476" max="9476" width="5.5" style="2" customWidth="1"/>
+    <col min="9477" max="9480" width="6.125" style="2" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="2" customWidth="1"/>
     <col min="9482" max="9482" width="9" style="2"/>
-    <col min="9483" max="9483" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9483" max="9483" width="13.875" style="2" customWidth="1"/>
     <col min="9484" max="9723" width="9" style="2"/>
-    <col min="9724" max="9724" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9726" max="9729" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9730" max="9730" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9731" max="9731" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9732" max="9732" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9733" max="9736" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9737" max="9737" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9724" max="9724" width="9.125" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="5.5" style="2" customWidth="1"/>
+    <col min="9726" max="9729" width="6.125" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="5.5" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="9.125" style="2" customWidth="1"/>
+    <col min="9732" max="9732" width="5.5" style="2" customWidth="1"/>
+    <col min="9733" max="9736" width="6.125" style="2" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="2" customWidth="1"/>
     <col min="9738" max="9738" width="9" style="2"/>
-    <col min="9739" max="9739" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9739" max="9739" width="13.875" style="2" customWidth="1"/>
     <col min="9740" max="9979" width="9" style="2"/>
-    <col min="9980" max="9980" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9982" max="9985" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9986" max="9986" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9987" max="9987" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9988" max="9988" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9989" max="9992" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9993" max="9993" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9980" max="9980" width="9.125" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="5.5" style="2" customWidth="1"/>
+    <col min="9982" max="9985" width="6.125" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="5.5" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="9.125" style="2" customWidth="1"/>
+    <col min="9988" max="9988" width="5.5" style="2" customWidth="1"/>
+    <col min="9989" max="9992" width="6.125" style="2" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="2" customWidth="1"/>
     <col min="9994" max="9994" width="9" style="2"/>
-    <col min="9995" max="9995" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9995" max="9995" width="13.875" style="2" customWidth="1"/>
     <col min="9996" max="10235" width="9" style="2"/>
-    <col min="10236" max="10236" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10238" max="10241" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10242" max="10242" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10243" max="10243" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10244" max="10244" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10245" max="10248" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10249" max="10249" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10236" max="10236" width="9.125" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="5.5" style="2" customWidth="1"/>
+    <col min="10238" max="10241" width="6.125" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="5.5" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="9.125" style="2" customWidth="1"/>
+    <col min="10244" max="10244" width="5.5" style="2" customWidth="1"/>
+    <col min="10245" max="10248" width="6.125" style="2" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="2" customWidth="1"/>
     <col min="10250" max="10250" width="9" style="2"/>
-    <col min="10251" max="10251" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10251" max="10251" width="13.875" style="2" customWidth="1"/>
     <col min="10252" max="10491" width="9" style="2"/>
-    <col min="10492" max="10492" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10494" max="10497" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10498" max="10498" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10499" max="10499" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10500" max="10500" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10501" max="10504" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10505" max="10505" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10492" max="10492" width="9.125" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="5.5" style="2" customWidth="1"/>
+    <col min="10494" max="10497" width="6.125" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="5.5" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="9.125" style="2" customWidth="1"/>
+    <col min="10500" max="10500" width="5.5" style="2" customWidth="1"/>
+    <col min="10501" max="10504" width="6.125" style="2" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="2" customWidth="1"/>
     <col min="10506" max="10506" width="9" style="2"/>
-    <col min="10507" max="10507" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10507" max="10507" width="13.875" style="2" customWidth="1"/>
     <col min="10508" max="10747" width="9" style="2"/>
-    <col min="10748" max="10748" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10750" max="10753" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10754" max="10754" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10755" max="10755" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10756" max="10756" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10757" max="10760" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10761" max="10761" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10748" max="10748" width="9.125" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="5.5" style="2" customWidth="1"/>
+    <col min="10750" max="10753" width="6.125" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="5.5" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="9.125" style="2" customWidth="1"/>
+    <col min="10756" max="10756" width="5.5" style="2" customWidth="1"/>
+    <col min="10757" max="10760" width="6.125" style="2" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="2" customWidth="1"/>
     <col min="10762" max="10762" width="9" style="2"/>
-    <col min="10763" max="10763" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10763" max="10763" width="13.875" style="2" customWidth="1"/>
     <col min="10764" max="11003" width="9" style="2"/>
-    <col min="11004" max="11004" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11006" max="11009" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11010" max="11010" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11011" max="11011" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11012" max="11012" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11013" max="11016" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11017" max="11017" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11004" max="11004" width="9.125" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="5.5" style="2" customWidth="1"/>
+    <col min="11006" max="11009" width="6.125" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="5.5" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="9.125" style="2" customWidth="1"/>
+    <col min="11012" max="11012" width="5.5" style="2" customWidth="1"/>
+    <col min="11013" max="11016" width="6.125" style="2" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="2" customWidth="1"/>
     <col min="11018" max="11018" width="9" style="2"/>
-    <col min="11019" max="11019" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11019" max="11019" width="13.875" style="2" customWidth="1"/>
     <col min="11020" max="11259" width="9" style="2"/>
-    <col min="11260" max="11260" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11262" max="11265" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11266" max="11266" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11267" max="11267" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11268" max="11268" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11269" max="11272" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11273" max="11273" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11260" max="11260" width="9.125" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="5.5" style="2" customWidth="1"/>
+    <col min="11262" max="11265" width="6.125" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="5.5" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="9.125" style="2" customWidth="1"/>
+    <col min="11268" max="11268" width="5.5" style="2" customWidth="1"/>
+    <col min="11269" max="11272" width="6.125" style="2" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="2" customWidth="1"/>
     <col min="11274" max="11274" width="9" style="2"/>
-    <col min="11275" max="11275" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11275" max="11275" width="13.875" style="2" customWidth="1"/>
     <col min="11276" max="11515" width="9" style="2"/>
-    <col min="11516" max="11516" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11518" max="11521" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11522" max="11522" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11523" max="11523" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11524" max="11524" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11525" max="11528" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11529" max="11529" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11516" max="11516" width="9.125" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="5.5" style="2" customWidth="1"/>
+    <col min="11518" max="11521" width="6.125" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="5.5" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="9.125" style="2" customWidth="1"/>
+    <col min="11524" max="11524" width="5.5" style="2" customWidth="1"/>
+    <col min="11525" max="11528" width="6.125" style="2" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="2" customWidth="1"/>
     <col min="11530" max="11530" width="9" style="2"/>
-    <col min="11531" max="11531" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11531" max="11531" width="13.875" style="2" customWidth="1"/>
     <col min="11532" max="11771" width="9" style="2"/>
-    <col min="11772" max="11772" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11774" max="11777" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11778" max="11778" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11779" max="11779" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11780" max="11780" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11781" max="11784" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11785" max="11785" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11772" max="11772" width="9.125" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="5.5" style="2" customWidth="1"/>
+    <col min="11774" max="11777" width="6.125" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="5.5" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="9.125" style="2" customWidth="1"/>
+    <col min="11780" max="11780" width="5.5" style="2" customWidth="1"/>
+    <col min="11781" max="11784" width="6.125" style="2" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="2" customWidth="1"/>
     <col min="11786" max="11786" width="9" style="2"/>
-    <col min="11787" max="11787" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11787" max="11787" width="13.875" style="2" customWidth="1"/>
     <col min="11788" max="12027" width="9" style="2"/>
-    <col min="12028" max="12028" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12030" max="12033" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12034" max="12034" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12035" max="12035" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12036" max="12036" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12037" max="12040" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12041" max="12041" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12028" max="12028" width="9.125" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="5.5" style="2" customWidth="1"/>
+    <col min="12030" max="12033" width="6.125" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="5.5" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="9.125" style="2" customWidth="1"/>
+    <col min="12036" max="12036" width="5.5" style="2" customWidth="1"/>
+    <col min="12037" max="12040" width="6.125" style="2" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="2" customWidth="1"/>
     <col min="12042" max="12042" width="9" style="2"/>
-    <col min="12043" max="12043" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12043" max="12043" width="13.875" style="2" customWidth="1"/>
     <col min="12044" max="12283" width="9" style="2"/>
-    <col min="12284" max="12284" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12286" max="12289" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12290" max="12290" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12291" max="12291" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12292" max="12292" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12293" max="12296" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12297" max="12297" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12284" max="12284" width="9.125" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="5.5" style="2" customWidth="1"/>
+    <col min="12286" max="12289" width="6.125" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="5.5" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="9.125" style="2" customWidth="1"/>
+    <col min="12292" max="12292" width="5.5" style="2" customWidth="1"/>
+    <col min="12293" max="12296" width="6.125" style="2" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="2" customWidth="1"/>
     <col min="12298" max="12298" width="9" style="2"/>
-    <col min="12299" max="12299" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12299" max="12299" width="13.875" style="2" customWidth="1"/>
     <col min="12300" max="12539" width="9" style="2"/>
-    <col min="12540" max="12540" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12542" max="12545" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12546" max="12546" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12547" max="12547" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12548" max="12548" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12549" max="12552" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12553" max="12553" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12540" max="12540" width="9.125" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="5.5" style="2" customWidth="1"/>
+    <col min="12542" max="12545" width="6.125" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="5.5" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="9.125" style="2" customWidth="1"/>
+    <col min="12548" max="12548" width="5.5" style="2" customWidth="1"/>
+    <col min="12549" max="12552" width="6.125" style="2" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="2" customWidth="1"/>
     <col min="12554" max="12554" width="9" style="2"/>
-    <col min="12555" max="12555" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12555" max="12555" width="13.875" style="2" customWidth="1"/>
     <col min="12556" max="12795" width="9" style="2"/>
-    <col min="12796" max="12796" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12798" max="12801" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12802" max="12802" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12803" max="12803" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12804" max="12804" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12805" max="12808" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12809" max="12809" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12796" max="12796" width="9.125" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="5.5" style="2" customWidth="1"/>
+    <col min="12798" max="12801" width="6.125" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="5.5" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="9.125" style="2" customWidth="1"/>
+    <col min="12804" max="12804" width="5.5" style="2" customWidth="1"/>
+    <col min="12805" max="12808" width="6.125" style="2" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="2" customWidth="1"/>
     <col min="12810" max="12810" width="9" style="2"/>
-    <col min="12811" max="12811" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12811" max="12811" width="13.875" style="2" customWidth="1"/>
     <col min="12812" max="13051" width="9" style="2"/>
-    <col min="13052" max="13052" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13054" max="13057" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13058" max="13058" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13059" max="13059" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13060" max="13060" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13061" max="13064" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13065" max="13065" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13052" max="13052" width="9.125" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="5.5" style="2" customWidth="1"/>
+    <col min="13054" max="13057" width="6.125" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="5.5" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="9.125" style="2" customWidth="1"/>
+    <col min="13060" max="13060" width="5.5" style="2" customWidth="1"/>
+    <col min="13061" max="13064" width="6.125" style="2" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="2" customWidth="1"/>
     <col min="13066" max="13066" width="9" style="2"/>
-    <col min="13067" max="13067" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13067" max="13067" width="13.875" style="2" customWidth="1"/>
     <col min="13068" max="13307" width="9" style="2"/>
-    <col min="13308" max="13308" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13310" max="13313" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13314" max="13314" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13315" max="13315" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13316" max="13316" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13317" max="13320" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13321" max="13321" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13308" max="13308" width="9.125" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="5.5" style="2" customWidth="1"/>
+    <col min="13310" max="13313" width="6.125" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="5.5" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="9.125" style="2" customWidth="1"/>
+    <col min="13316" max="13316" width="5.5" style="2" customWidth="1"/>
+    <col min="13317" max="13320" width="6.125" style="2" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="2" customWidth="1"/>
     <col min="13322" max="13322" width="9" style="2"/>
-    <col min="13323" max="13323" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13323" max="13323" width="13.875" style="2" customWidth="1"/>
     <col min="13324" max="13563" width="9" style="2"/>
-    <col min="13564" max="13564" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13566" max="13569" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13570" max="13570" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13571" max="13571" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13572" max="13572" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13573" max="13576" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13577" max="13577" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13564" max="13564" width="9.125" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="5.5" style="2" customWidth="1"/>
+    <col min="13566" max="13569" width="6.125" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="5.5" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="9.125" style="2" customWidth="1"/>
+    <col min="13572" max="13572" width="5.5" style="2" customWidth="1"/>
+    <col min="13573" max="13576" width="6.125" style="2" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="2" customWidth="1"/>
     <col min="13578" max="13578" width="9" style="2"/>
-    <col min="13579" max="13579" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13579" max="13579" width="13.875" style="2" customWidth="1"/>
     <col min="13580" max="13819" width="9" style="2"/>
-    <col min="13820" max="13820" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13822" max="13825" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13826" max="13826" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13827" max="13827" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13828" max="13828" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13829" max="13832" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13833" max="13833" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13820" max="13820" width="9.125" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="5.5" style="2" customWidth="1"/>
+    <col min="13822" max="13825" width="6.125" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="5.5" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="9.125" style="2" customWidth="1"/>
+    <col min="13828" max="13828" width="5.5" style="2" customWidth="1"/>
+    <col min="13829" max="13832" width="6.125" style="2" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="2" customWidth="1"/>
     <col min="13834" max="13834" width="9" style="2"/>
-    <col min="13835" max="13835" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13835" max="13835" width="13.875" style="2" customWidth="1"/>
     <col min="13836" max="14075" width="9" style="2"/>
-    <col min="14076" max="14076" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14078" max="14081" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14082" max="14082" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14083" max="14083" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14084" max="14084" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14085" max="14088" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14089" max="14089" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14076" max="14076" width="9.125" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="5.5" style="2" customWidth="1"/>
+    <col min="14078" max="14081" width="6.125" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="5.5" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="9.125" style="2" customWidth="1"/>
+    <col min="14084" max="14084" width="5.5" style="2" customWidth="1"/>
+    <col min="14085" max="14088" width="6.125" style="2" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="2" customWidth="1"/>
     <col min="14090" max="14090" width="9" style="2"/>
-    <col min="14091" max="14091" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14091" max="14091" width="13.875" style="2" customWidth="1"/>
     <col min="14092" max="14331" width="9" style="2"/>
-    <col min="14332" max="14332" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14334" max="14337" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14338" max="14338" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14339" max="14339" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14340" max="14340" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14341" max="14344" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14345" max="14345" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14332" max="14332" width="9.125" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="5.5" style="2" customWidth="1"/>
+    <col min="14334" max="14337" width="6.125" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="5.5" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="9.125" style="2" customWidth="1"/>
+    <col min="14340" max="14340" width="5.5" style="2" customWidth="1"/>
+    <col min="14341" max="14344" width="6.125" style="2" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="2" customWidth="1"/>
     <col min="14346" max="14346" width="9" style="2"/>
-    <col min="14347" max="14347" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14347" max="14347" width="13.875" style="2" customWidth="1"/>
     <col min="14348" max="14587" width="9" style="2"/>
-    <col min="14588" max="14588" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14590" max="14593" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14594" max="14594" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14595" max="14595" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14596" max="14596" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14597" max="14600" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14601" max="14601" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14588" max="14588" width="9.125" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="5.5" style="2" customWidth="1"/>
+    <col min="14590" max="14593" width="6.125" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="5.5" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="9.125" style="2" customWidth="1"/>
+    <col min="14596" max="14596" width="5.5" style="2" customWidth="1"/>
+    <col min="14597" max="14600" width="6.125" style="2" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="2" customWidth="1"/>
     <col min="14602" max="14602" width="9" style="2"/>
-    <col min="14603" max="14603" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14603" max="14603" width="13.875" style="2" customWidth="1"/>
     <col min="14604" max="14843" width="9" style="2"/>
-    <col min="14844" max="14844" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14846" max="14849" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14850" max="14850" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14851" max="14851" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14852" max="14852" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14853" max="14856" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14857" max="14857" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14844" max="14844" width="9.125" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="5.5" style="2" customWidth="1"/>
+    <col min="14846" max="14849" width="6.125" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="5.5" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="9.125" style="2" customWidth="1"/>
+    <col min="14852" max="14852" width="5.5" style="2" customWidth="1"/>
+    <col min="14853" max="14856" width="6.125" style="2" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="2" customWidth="1"/>
     <col min="14858" max="14858" width="9" style="2"/>
-    <col min="14859" max="14859" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14859" max="14859" width="13.875" style="2" customWidth="1"/>
     <col min="14860" max="15099" width="9" style="2"/>
-    <col min="15100" max="15100" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15102" max="15105" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15106" max="15106" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15107" max="15107" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15108" max="15108" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15109" max="15112" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15113" max="15113" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15100" max="15100" width="9.125" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="5.5" style="2" customWidth="1"/>
+    <col min="15102" max="15105" width="6.125" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="5.5" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="9.125" style="2" customWidth="1"/>
+    <col min="15108" max="15108" width="5.5" style="2" customWidth="1"/>
+    <col min="15109" max="15112" width="6.125" style="2" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="2" customWidth="1"/>
     <col min="15114" max="15114" width="9" style="2"/>
-    <col min="15115" max="15115" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15115" max="15115" width="13.875" style="2" customWidth="1"/>
     <col min="15116" max="15355" width="9" style="2"/>
-    <col min="15356" max="15356" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15358" max="15361" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15362" max="15362" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15363" max="15363" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15364" max="15364" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15365" max="15368" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15369" max="15369" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15356" max="15356" width="9.125" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="5.5" style="2" customWidth="1"/>
+    <col min="15358" max="15361" width="6.125" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="5.5" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="9.125" style="2" customWidth="1"/>
+    <col min="15364" max="15364" width="5.5" style="2" customWidth="1"/>
+    <col min="15365" max="15368" width="6.125" style="2" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="2" customWidth="1"/>
     <col min="15370" max="15370" width="9" style="2"/>
-    <col min="15371" max="15371" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15371" max="15371" width="13.875" style="2" customWidth="1"/>
     <col min="15372" max="15611" width="9" style="2"/>
-    <col min="15612" max="15612" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15614" max="15617" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15618" max="15618" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15619" max="15619" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15620" max="15620" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15621" max="15624" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15625" max="15625" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15612" max="15612" width="9.125" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="5.5" style="2" customWidth="1"/>
+    <col min="15614" max="15617" width="6.125" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="5.5" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="9.125" style="2" customWidth="1"/>
+    <col min="15620" max="15620" width="5.5" style="2" customWidth="1"/>
+    <col min="15621" max="15624" width="6.125" style="2" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="2" customWidth="1"/>
     <col min="15626" max="15626" width="9" style="2"/>
-    <col min="15627" max="15627" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15627" max="15627" width="13.875" style="2" customWidth="1"/>
     <col min="15628" max="15867" width="9" style="2"/>
-    <col min="15868" max="15868" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15870" max="15873" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15874" max="15874" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15875" max="15875" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15876" max="15876" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15877" max="15880" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15881" max="15881" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15868" max="15868" width="9.125" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="5.5" style="2" customWidth="1"/>
+    <col min="15870" max="15873" width="6.125" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="5.5" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="9.125" style="2" customWidth="1"/>
+    <col min="15876" max="15876" width="5.5" style="2" customWidth="1"/>
+    <col min="15877" max="15880" width="6.125" style="2" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="2" customWidth="1"/>
     <col min="15882" max="15882" width="9" style="2"/>
-    <col min="15883" max="15883" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15883" max="15883" width="13.875" style="2" customWidth="1"/>
     <col min="15884" max="16123" width="9" style="2"/>
-    <col min="16124" max="16124" width="9.1328125" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16126" max="16129" width="6.19921875" style="2" customWidth="1"/>
-    <col min="16130" max="16130" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16131" max="16131" width="9.19921875" style="2" customWidth="1"/>
-    <col min="16132" max="16132" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16133" max="16136" width="6.19921875" style="2" customWidth="1"/>
-    <col min="16137" max="16137" width="5.46484375" style="2" customWidth="1"/>
+    <col min="16124" max="16124" width="9.125" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="5.5" style="2" customWidth="1"/>
+    <col min="16126" max="16129" width="6.125" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="5.5" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="9.125" style="2" customWidth="1"/>
+    <col min="16132" max="16132" width="5.5" style="2" customWidth="1"/>
+    <col min="16133" max="16136" width="6.125" style="2" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="2" customWidth="1"/>
     <col min="16138" max="16138" width="9" style="2"/>
-    <col min="16139" max="16139" width="13.86328125" style="2" customWidth="1"/>
+    <col min="16139" max="16139" width="13.875" style="2" customWidth="1"/>
     <col min="16140" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="77" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +5324,7 @@
       <c r="K1" s="77"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -5348,7 +5347,7 @@
       <c r="N2" s="17"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -5372,7 +5371,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -5394,7 +5393,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -5423,7 +5422,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -5452,7 +5451,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -5481,7 +5480,7 @@
       </c>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
         <v>0</v>
       </c>
@@ -5513,7 +5512,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="12"/>
@@ -5531,7 +5530,7 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="12"/>
@@ -5549,7 +5548,7 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="85"/>
       <c r="C11" s="12"/>
@@ -5566,7 +5565,7 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="12"/>
@@ -5583,7 +5582,7 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="85"/>
       <c r="C13" s="12"/>
@@ -5600,7 +5599,7 @@
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="85"/>
       <c r="C14" s="12"/>
@@ -5617,7 +5616,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="85"/>
       <c r="C15" s="12"/>
@@ -5634,7 +5633,7 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
       <c r="C16" s="12"/>
@@ -5651,7 +5650,7 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="12"/>
@@ -5668,7 +5667,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="12"/>
@@ -5685,7 +5684,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="12"/>
@@ -5702,7 +5701,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="12"/>
@@ -5719,7 +5718,7 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="84"/>
       <c r="B21" s="85"/>
       <c r="C21" s="12"/>
@@ -5735,7 +5734,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="12"/>
@@ -5751,7 +5750,7 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="12"/>
@@ -5767,7 +5766,7 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="12"/>
@@ -5783,7 +5782,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="12"/>
@@ -5799,7 +5798,7 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="84"/>
       <c r="B26" s="85"/>
       <c r="C26" s="12"/>
@@ -5815,7 +5814,7 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="84"/>
       <c r="B27" s="85"/>
       <c r="C27" s="12"/>
@@ -5831,7 +5830,7 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
     </row>
-    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="84"/>
       <c r="B28" s="85"/>
       <c r="C28" s="12"/>
@@ -5847,7 +5846,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
     </row>
-    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="84"/>
       <c r="B29" s="85"/>
       <c r="C29" s="12"/>
@@ -5863,7 +5862,7 @@
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
     </row>
-    <row r="30" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="84"/>
       <c r="B30" s="85"/>
       <c r="C30" s="12"/>
@@ -5879,7 +5878,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="84"/>
       <c r="B31" s="85"/>
       <c r="C31" s="12"/>
@@ -5895,7 +5894,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="12"/>
@@ -5911,7 +5910,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="84"/>
       <c r="B33" s="85"/>
       <c r="C33" s="12"/>
@@ -5927,7 +5926,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="88" t="s">
         <v>51</v>
       </c>
@@ -6062,10 +6061,8 @@
   <pageMargins left="0.86597222222222203" right="0.59027777777777801" top="0.78680555555555598" bottom="0.62986111111111098" header="0.35416666666666702" footer="0.39305555555555599"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
 第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R复核：</oddFooter>
   </headerFooter>
 </worksheet>
 </file>